--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1649508\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1649508\Downloads\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DDDFAB9-1AF7-4332-841E-43F31634E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949BBF6-31EE-4896-BEC4-495DA666B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
   <si>
     <t>Planification</t>
   </si>
@@ -748,9 +748,6 @@
     <t>Création des squelettes des classes en backend</t>
   </si>
   <si>
-    <t>Composantes React: Home, Login, Create account page, Questionnaire page</t>
-  </si>
-  <si>
     <t>Authentification backend avec la création des token &amp; decorateur token_required</t>
   </si>
   <si>
@@ -760,13 +757,97 @@
     <t>les DAO</t>
   </si>
   <si>
-    <t>les Manager: Account, Matching, Notification</t>
-  </si>
-  <si>
     <t>ChatroomManager et websocket</t>
   </si>
   <si>
-    <t>Page de suggestions en React (sans swipe, juste boutons)</t>
+    <t>backend: abstract Strategy + AlgoStrategy</t>
+  </si>
+  <si>
+    <t>bibliotheque: Queue</t>
+  </si>
+  <si>
+    <t>bibliotheque: middleware</t>
+  </si>
+  <si>
+    <t>trigger &amp; fonction pour tableau suggestion dans la base de données</t>
+  </si>
+  <si>
+    <t>page Statistiques React</t>
+  </si>
+  <si>
+    <t>classe Statistics backend + fonctions statistiques base de données</t>
+  </si>
+  <si>
+    <t>Composantes React: Home, Login, Create account page, Questionnaire page - de base</t>
+  </si>
+  <si>
+    <t>Page de suggestions en React (sans swipe, juste boutons) - de base</t>
+  </si>
+  <si>
+    <t>Chatrooms Page React de base</t>
+  </si>
+  <si>
+    <t>Private chatroom page React de base</t>
+  </si>
+  <si>
+    <t>TestSimulator + UserFactory 1ere version</t>
+  </si>
+  <si>
+    <t>les Manager: Account, Matching</t>
+  </si>
+  <si>
+    <t>NotificationManager</t>
+  </si>
+  <si>
+    <t>classe User</t>
+  </si>
+  <si>
+    <t>EmailAdapter</t>
+  </si>
+  <si>
+    <t>Implementation des autres algorithmes en librairie et plugger dans Strategy</t>
+  </si>
+  <si>
+    <t>Ameliorer page de Suggestions - React</t>
+  </si>
+  <si>
+    <t>Amelioration des pages de Login, Create Account - React</t>
+  </si>
+  <si>
+    <t>Ameliorer tous les composantes de Bouton et les Icones - React</t>
+  </si>
+  <si>
+    <t>Ameliorer page de private chatroom</t>
+  </si>
+  <si>
+    <t>TestSimulator + UserFactory 2eme version</t>
+  </si>
+  <si>
+    <t>Reviser la logique interne de l'entiereté du programme</t>
+  </si>
+  <si>
+    <t>SwipingStrategy</t>
+  </si>
+  <si>
+    <t>Fonctionnalité de flagging</t>
+  </si>
+  <si>
+    <t>Page de modification de profil</t>
+  </si>
+  <si>
+    <t>Rapport final</t>
+  </si>
+  <si>
+    <t>Readme</t>
+  </si>
+  <si>
+    <t>Vidéo de présentation</t>
+  </si>
+  <si>
+    <t>API localisation dans le frontend + introduction dans l'algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pages de confirmation email, page de menu (settings) </t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1143,18 +1224,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1171,11 +1252,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,13 +1731,13 @@
                   <c:v>1.8645833333294597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95833333333333437</c:v>
+                  <c:v>1.7499999999999978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7187500000000153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.96875000000000144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2049,10 +2134,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.95833333333333437</c:v>
+                  <c:v>1.7499999999999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2166,10 +2251,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.7187500000000153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2285,10 +2370,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.96875000000000144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2621,10 +2706,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.8229166666627945</c:v>
+                  <c:v>5.9479166666628061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,10 +2765,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.22916666666666702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2739,10 +2824,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,10 +3159,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20833333333333345</c:v>
+                  <c:v>1.3854166666666685</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3133,10 +3218,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62500000000002309</c:v>
+                  <c:v>2.1666666666666896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,10 +3277,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9895833333294375</c:v>
+                  <c:v>2.749999999996116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3527,10 +3612,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666668972</c:v>
+                  <c:v>2.3437500000000249</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,10 +3671,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8333333333294373</c:v>
+                  <c:v>2.6666666666627665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3645,10 +3730,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.44791666666666741</c:v>
+                  <c:v>1.2916666666666825</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7420,8 +7505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -7595,7 +7680,7 @@
       <c r="N13" s="46"/>
       <c r="U13" s="2">
         <f>D68</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AA13" s="2">
         <f>N7</f>
@@ -7607,12 +7692,12 @@
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
@@ -7663,12 +7748,12 @@
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
         <v>17</v>
@@ -7707,12 +7792,12 @@
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
       <c r="H17" s="32">
         <v>1</v>
       </c>
@@ -7776,12 +7861,12 @@
       <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
       <c r="H18" s="34">
         <v>2</v>
       </c>
@@ -7838,23 +7923,23 @@
       </c>
       <c r="AD18" s="1">
         <f>COUNTIF(Sprint,AC18)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE18" s="19">
         <f>SUMIFS(Duree, Sprint,AC18)</f>
-        <v>0.95833333333333437</v>
+        <v>1.7499999999999978</v>
       </c>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="42" t="s">
+      <c r="D19" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="32">
         <v>3</v>
       </c>
@@ -7911,23 +7996,23 @@
       </c>
       <c r="AD19" s="1">
         <f>COUNTIF(Sprint,AC19)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE19" s="19">
         <f>SUMIFS(Duree, Sprint,AC19)</f>
-        <v>0</v>
+        <v>1.7187500000000153</v>
       </c>
     </row>
     <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="13">
         <v>5</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
         <v>17</v>
@@ -7970,23 +8055,23 @@
       </c>
       <c r="AD20" s="1">
         <f>COUNTIF(Sprint,AC20)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE20" s="19">
         <f>SUMIFS(Duree, Sprint,AC20)</f>
-        <v>0</v>
+        <v>0.96875000000000144</v>
       </c>
     </row>
     <row r="21" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="42" t="s">
+      <c r="D21" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
       <c r="H21" s="32">
         <v>5</v>
       </c>
@@ -8027,12 +8112,12 @@
       <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="34">
         <v>5</v>
       </c>
@@ -8069,12 +8154,12 @@
       <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="49" t="s">
+      <c r="D23" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="32">
         <v>5</v>
       </c>
@@ -8120,12 +8205,12 @@
       <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="D24" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="34">
         <v>6</v>
       </c>
@@ -8133,19 +8218,19 @@
         <v>17</v>
       </c>
       <c r="J24" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K24" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" s="35">
-        <v>0.14583333333333401</v>
+        <v>3.125E-2</v>
       </c>
       <c r="M24" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T24" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8163,25 +8248,25 @@
       </c>
       <c r="AD24" s="1">
         <f>COUNTIF(Responsabilite,AC24)</f>
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="AE24" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC24)</f>
-        <v>2.0312499999961267</v>
+        <v>3.7395833333294766</v>
       </c>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="D25" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
       <c r="H25" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>17</v>
@@ -8193,13 +8278,13 @@
         <v>3</v>
       </c>
       <c r="L25" s="33">
-        <v>0.125</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M25" s="32" t="s">
         <v>14</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T25" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8217,25 +8302,25 @@
       </c>
       <c r="AD25" s="1">
         <f>COUNTIF(Responsabilite,AC25)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AE25" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC25)</f>
-        <v>0.34375000000000022</v>
+        <v>1.1770833333333304</v>
       </c>
     </row>
     <row r="26" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C26" s="13">
         <v>11</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="D26" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>17</v>
@@ -8244,10 +8329,10 @@
         <v>3</v>
       </c>
       <c r="K26" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>14</v>
@@ -8271,25 +8356,25 @@
       </c>
       <c r="AD26" s="1">
         <f>COUNTIF(Responsabilite,AC26)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE26" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC26)</f>
-        <v>0.44791666666666741</v>
+        <v>1.385416666666667</v>
       </c>
     </row>
     <row r="27" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C27" s="12">
         <v>12</v>
       </c>
-      <c r="D27" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="D27" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>17</v>
@@ -8298,16 +8383,16 @@
         <v>3</v>
       </c>
       <c r="K27" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" s="33">
-        <v>9.375E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M27" s="32" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T27" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8325,7 +8410,7 @@
       </c>
       <c r="AD27" s="1">
         <f>COUNTIF(Responsabilite,AC27)</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AE27" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC27)</f>
@@ -8336,12 +8421,12 @@
       <c r="C28" s="13">
         <v>13</v>
       </c>
-      <c r="D28" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="D28" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
       <c r="H28" s="34">
         <v>8</v>
       </c>
@@ -8349,19 +8434,19 @@
         <v>17</v>
       </c>
       <c r="J28" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K28" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M28" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>ISBLANK(D28)</f>
@@ -8379,7 +8464,7 @@
       </c>
       <c r="AD28" s="1">
         <f>COUNTIF(Responsabilite,AC28)</f>
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="AE28" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC28)</f>
@@ -8390,23 +8475,23 @@
       <c r="C29" s="12">
         <v>14</v>
       </c>
-      <c r="D29" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="D29" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="32">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29" s="33">
         <v>8.3333333333333398E-2</v>
@@ -8415,7 +8500,7 @@
         <v>14</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T29" s="1" t="b">
         <f>ISBLANK(D29)</f>
@@ -8432,12 +8517,12 @@
       <c r="C30" s="13">
         <v>15</v>
       </c>
-      <c r="D30" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="D30" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
       <c r="H30" s="34">
         <v>13</v>
       </c>
@@ -8445,19 +8530,19 @@
         <v>17</v>
       </c>
       <c r="J30" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K30" s="34">
         <v>2</v>
       </c>
       <c r="L30" s="35">
-        <v>0.125</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M30" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T30" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8480,20 +8565,36 @@
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="D31" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="32">
+        <v>14</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="32">
+        <v>2</v>
+      </c>
+      <c r="K31" s="32">
+        <v>3</v>
+      </c>
+      <c r="L31" s="33">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T31" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="2">
         <v>15</v>
@@ -8506,31 +8607,47 @@
       </c>
       <c r="AD31" s="1">
         <f>COUNTIF(Categorie,AC31)</f>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="AE31" s="19">
         <f>SUMIFS(Duree, Categorie,AC31)</f>
-        <v>2.8229166666627945</v>
+        <v>5.9479166666628061</v>
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C32" s="13">
         <v>17</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
+      <c r="D32" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="34">
+        <v>14</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="34">
+        <v>3</v>
+      </c>
+      <c r="K32" s="34">
+        <v>2</v>
+      </c>
+      <c r="L32" s="35">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N32" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T32" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" s="2">
         <v>16</v>
@@ -8543,31 +8660,47 @@
       </c>
       <c r="AD32" s="1">
         <f>COUNTIF(Categorie,AC32)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE32" s="19">
         <f>SUMIFS(Duree, Categorie,AC32)</f>
-        <v>0</v>
+        <v>0.22916666666666702</v>
       </c>
     </row>
     <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="12">
         <v>18</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
+      <c r="D33" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="32">
+        <v>12</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="32">
+        <v>2</v>
+      </c>
+      <c r="K33" s="32">
+        <v>1</v>
+      </c>
+      <c r="L33" s="33">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="M33" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="N33" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="T33" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="2">
         <v>17</v>
@@ -8580,31 +8713,47 @@
       </c>
       <c r="AD33" s="1">
         <f>COUNTIF(Categorie,AC33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33" s="19">
         <f>SUMIFS(Duree, Categorie,AC33)</f>
-        <v>0</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="13">
         <v>19</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
+      <c r="D34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="34">
+        <v>12</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="34">
+        <v>2</v>
+      </c>
+      <c r="K34" s="34">
+        <v>2</v>
+      </c>
+      <c r="L34" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N34" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T34" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="2">
         <v>18</v>
@@ -8617,20 +8766,36 @@
       <c r="C35" s="12">
         <v>20</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
+      <c r="D35" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="32">
+        <v>12</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="32">
+        <v>1</v>
+      </c>
+      <c r="K35" s="32">
+        <v>1</v>
+      </c>
+      <c r="L35" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M35" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T35" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" s="2">
         <v>19</v>
@@ -8649,20 +8814,36 @@
       <c r="C36" s="13">
         <v>21</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
+      <c r="D36" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="34">
+        <v>10</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="34">
+        <v>2</v>
+      </c>
+      <c r="K36" s="34">
+        <v>3</v>
+      </c>
+      <c r="L36" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36" s="34" t="s">
+        <v>74</v>
+      </c>
       <c r="T36" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U36" s="2">
         <v>20</v>
@@ -8675,31 +8856,47 @@
       </c>
       <c r="AD36" s="1">
         <f>COUNTIF(Difficulte,W17)</f>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="AE36" s="19">
         <f>SUMIFS(Duree, Difficulte,W17)</f>
-        <v>0.20833333333333345</v>
+        <v>1.3854166666666685</v>
       </c>
     </row>
     <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="12">
         <v>22</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="D37" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="32">
+        <v>9</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="32">
+        <v>3</v>
+      </c>
+      <c r="K37" s="32">
+        <v>2</v>
+      </c>
+      <c r="L37" s="33">
+        <v>0.20833333333333001</v>
+      </c>
+      <c r="M37" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="T37" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37" s="2">
         <v>21</v>
@@ -8712,31 +8909,47 @@
       </c>
       <c r="AD37" s="1">
         <f>COUNTIF(Difficulte,W18)</f>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="AE37" s="19">
         <f>SUMIFS(Duree, Difficulte,W18)</f>
-        <v>0.62500000000002309</v>
+        <v>2.1666666666666896</v>
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="13">
         <v>23</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="34"/>
+      <c r="D38" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="34">
+        <v>15</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="34">
+        <v>2</v>
+      </c>
+      <c r="K38" s="34">
+        <v>2</v>
+      </c>
+      <c r="L38" s="35">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T38" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U38" s="2">
         <v>22</v>
@@ -8749,31 +8962,47 @@
       </c>
       <c r="AD38" s="1">
         <f>COUNTIF(Difficulte,W19)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE38" s="19">
         <f>SUMIFS(Duree, Difficulte,W19)</f>
-        <v>1.9895833333294375</v>
+        <v>2.749999999996116</v>
       </c>
     </row>
     <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="12">
         <v>24</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
+      <c r="D39" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="32">
+        <v>15</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="32">
+        <v>2</v>
+      </c>
+      <c r="K39" s="32">
+        <v>2</v>
+      </c>
+      <c r="L39" s="33">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M39" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T39" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" s="2">
         <v>23</v>
@@ -8786,20 +9015,36 @@
       <c r="C40" s="13">
         <v>25</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="34"/>
-      <c r="N40" s="34"/>
+      <c r="D40" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="34">
+        <v>10</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="34">
+        <v>2</v>
+      </c>
+      <c r="K40" s="34">
+        <v>2</v>
+      </c>
+      <c r="L40" s="35">
+        <v>0.14583333333333401</v>
+      </c>
+      <c r="M40" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T40" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="2">
         <v>24</v>
@@ -8818,20 +9063,36 @@
       <c r="C41" s="12">
         <v>26</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+      <c r="D41" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="32">
+        <v>23</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="32">
+        <v>3</v>
+      </c>
+      <c r="K41" s="32">
+        <v>3</v>
+      </c>
+      <c r="L41" s="33">
+        <v>0.33333333333335002</v>
+      </c>
+      <c r="M41" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T41" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U41" s="2">
         <v>25</v>
@@ -8844,31 +9105,47 @@
       </c>
       <c r="AD41" s="1">
         <f>COUNTIF(Incertitude,X17)</f>
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE41" s="19">
         <f>SUMIFS(Duree, Incertitude,X17)</f>
-        <v>0.54166666666668972</v>
+        <v>2.3437500000000249</v>
       </c>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C42" s="13">
         <v>27</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
+      <c r="D42" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="34">
+        <v>10</v>
+      </c>
+      <c r="I42" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="34">
+        <v>1</v>
+      </c>
+      <c r="K42" s="34">
+        <v>1</v>
+      </c>
+      <c r="L42" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M42" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T42" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="2">
         <v>26</v>
@@ -8881,31 +9158,47 @@
       </c>
       <c r="AD42" s="1">
         <f>COUNTIF(Incertitude,X18)</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AE42" s="19">
         <f>SUMIFS(Duree, Incertitude,X18)</f>
-        <v>1.8333333333294373</v>
+        <v>2.6666666666627665</v>
       </c>
     </row>
     <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="12">
         <v>28</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
+      <c r="D43" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="32">
+        <v>10</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="32">
+        <v>1</v>
+      </c>
+      <c r="K43" s="32">
+        <v>1</v>
+      </c>
+      <c r="L43" s="33">
+        <v>0.13541666666666699</v>
+      </c>
+      <c r="M43" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43" s="32" t="s">
+        <v>73</v>
+      </c>
       <c r="T43" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U43" s="2">
         <v>27</v>
@@ -8918,31 +9211,47 @@
       </c>
       <c r="AD43" s="1">
         <f>COUNTIF(Incertitude,X19)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE43" s="19">
         <f>SUMIFS(Duree, Incertitude,X19)</f>
-        <v>0.44791666666666741</v>
+        <v>1.2916666666666825</v>
       </c>
     </row>
     <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
+      <c r="D44" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="34">
+        <v>20</v>
+      </c>
+      <c r="I44" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="34">
+        <v>1</v>
+      </c>
+      <c r="K44" s="34">
+        <v>1</v>
+      </c>
+      <c r="L44" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M44" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T44" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U44" s="2">
         <v>28</v>
@@ -8955,20 +9264,36 @@
       <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
+      <c r="D45" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="32">
+        <v>12</v>
+      </c>
+      <c r="I45" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="32">
+        <v>1</v>
+      </c>
+      <c r="K45" s="32">
+        <v>1</v>
+      </c>
+      <c r="L45" s="33">
+        <v>0.14583333333333401</v>
+      </c>
+      <c r="M45" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="T45" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" s="2">
         <v>29</v>
@@ -8981,20 +9306,36 @@
       <c r="C46" s="13">
         <v>31</v>
       </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="34"/>
-      <c r="N46" s="34"/>
+      <c r="D46" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="34">
+        <v>20</v>
+      </c>
+      <c r="I46" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="34">
+        <v>2</v>
+      </c>
+      <c r="K46" s="34">
+        <v>1</v>
+      </c>
+      <c r="L46" s="35">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="M46" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T46" s="1" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>ISBLANK(D46)</f>
+        <v>0</v>
       </c>
       <c r="U46" s="2">
         <v>30</v>
@@ -9007,20 +9348,36 @@
       <c r="C47" s="12">
         <v>32</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
+      <c r="D47" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="32">
+        <v>22</v>
+      </c>
+      <c r="I47" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="32">
+        <v>2</v>
+      </c>
+      <c r="K47" s="32">
+        <v>2</v>
+      </c>
+      <c r="L47" s="33">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="M47" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T47" s="1" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U47" s="2">
         <v>31</v>
@@ -9033,20 +9390,36 @@
       <c r="C48" s="13">
         <v>33</v>
       </c>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
+      <c r="D48" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="34">
+        <v>19</v>
+      </c>
+      <c r="I48" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1</v>
+      </c>
+      <c r="K48" s="34">
+        <v>1</v>
+      </c>
+      <c r="L48" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M48" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T48" s="1" t="b">
         <f t="shared" ref="T48:T65" si="4">ISBLANK(D48)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" s="2">
         <v>32</v>
@@ -9059,20 +9432,36 @@
       <c r="C49" s="12">
         <v>34</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
+      <c r="D49" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="32">
+        <v>16</v>
+      </c>
+      <c r="I49" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="32">
+        <v>2</v>
+      </c>
+      <c r="K49" s="32">
+        <v>1</v>
+      </c>
+      <c r="L49" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="M49" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T49" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" s="2">
         <v>33</v>
@@ -9088,20 +9477,36 @@
       <c r="C50" s="13">
         <v>35</v>
       </c>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
+      <c r="D50" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="34">
+        <v>10</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="34">
+        <v>2</v>
+      </c>
+      <c r="K50" s="34">
+        <v>1</v>
+      </c>
+      <c r="L50" s="35">
+        <v>0.14583333333333401</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N50" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="T50" s="1" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>ISBLANK(D50)</f>
+        <v>0</v>
       </c>
       <c r="U50" s="2">
         <v>34</v>
@@ -9117,20 +9522,36 @@
       <c r="C51" s="12">
         <v>36</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
+      <c r="D51" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="32">
+        <v>25</v>
+      </c>
+      <c r="I51" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="32">
+        <v>1</v>
+      </c>
+      <c r="K51" s="32">
+        <v>1</v>
+      </c>
+      <c r="L51" s="33">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="M51" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N51" s="32" t="s">
+        <v>74</v>
+      </c>
       <c r="T51" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U51" s="2">
         <v>35</v>
@@ -9146,10 +9567,10 @@
       <c r="C52" s="13">
         <v>37</v>
       </c>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
       <c r="H52" s="34"/>
       <c r="I52" s="34"/>
       <c r="J52" s="34"/>
@@ -9175,10 +9596,10 @@
       <c r="C53" s="12">
         <v>38</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -9204,10 +9625,10 @@
       <c r="C54" s="13">
         <v>39</v>
       </c>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
       <c r="H54" s="34"/>
       <c r="I54" s="34"/>
       <c r="J54" s="34"/>
@@ -9233,20 +9654,34 @@
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="D55" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="I55" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="32">
+        <v>2</v>
+      </c>
+      <c r="K55" s="32">
+        <v>1</v>
+      </c>
+      <c r="L55" s="33">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="2">
         <v>39</v>
@@ -9262,20 +9697,34 @@
       <c r="C56" s="13">
         <v>41</v>
       </c>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
+      <c r="D56" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
+      <c r="I56" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="34">
+        <v>1</v>
+      </c>
+      <c r="K56" s="34">
+        <v>1</v>
+      </c>
+      <c r="L56" s="35">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T56" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2">
         <v>40</v>
@@ -9291,10 +9740,10 @@
       <c r="C57" s="12">
         <v>42</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="42"/>
-      <c r="G57" s="42"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
@@ -9320,20 +9769,34 @@
       <c r="C58" s="13">
         <v>43</v>
       </c>
-      <c r="D58" s="39"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
+      <c r="D58" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
+      <c r="I58" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="34">
+        <v>2</v>
+      </c>
+      <c r="K58" s="34">
+        <v>3</v>
+      </c>
+      <c r="L58" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T58" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2">
         <v>42</v>
@@ -9349,10 +9812,10 @@
       <c r="C59" s="12">
         <v>44</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
@@ -9378,10 +9841,10 @@
       <c r="C60" s="13">
         <v>45</v>
       </c>
-      <c r="D60" s="39"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
@@ -9407,20 +9870,34 @@
       <c r="C61" s="12">
         <v>46</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
+      <c r="D61" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
       <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
+      <c r="I61" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="32">
+        <v>1</v>
+      </c>
+      <c r="K61" s="32">
+        <v>1</v>
+      </c>
+      <c r="L61" s="33">
+        <v>8.3333333333333398E-2</v>
+      </c>
+      <c r="M61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N61" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T61" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" s="2">
         <v>45</v>
@@ -9436,20 +9913,34 @@
       <c r="C62" s="13">
         <v>47</v>
       </c>
-      <c r="D62" s="39"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
+      <c r="D62" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
       <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="34"/>
+      <c r="I62" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="34">
+        <v>1</v>
+      </c>
+      <c r="K62" s="34">
+        <v>1</v>
+      </c>
+      <c r="L62" s="35">
+        <v>3.125E-2</v>
+      </c>
+      <c r="M62" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N62" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T62" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U62" s="2">
         <v>46</v>
@@ -9465,20 +9956,34 @@
       <c r="C63" s="12">
         <v>48</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="D63" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
       <c r="H63" s="32"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
+      <c r="I63" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="32">
+        <v>1</v>
+      </c>
+      <c r="K63" s="32">
+        <v>1</v>
+      </c>
+      <c r="L63" s="33">
+        <v>4.1666666666666699E-2</v>
+      </c>
+      <c r="M63" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N63" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T63" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" s="2">
         <v>47</v>
@@ -9494,10 +9999,10 @@
       <c r="C64" s="13">
         <v>49</v>
       </c>
-      <c r="D64" s="39"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -9579,7 +10084,7 @@
     <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -9587,7 +10092,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="9">
         <f>SUM(L16:L65)</f>
-        <v>2.8229166666627945</v>
+        <v>6.302083333329473</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9865,7 +10370,45 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tjqSiT+XspradLJBNpu0viI4TokIDIF0O7QeXm3BTZLmeAfSOw5TlniSFfStQ9LXJLtK7gLyf3B6jINr+qJ+Cg==" saltValue="/wSmyHkNAfBsPbW8NILu1w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
-  <mergeCells count="55">
+  <mergeCells count="54">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D65:G65"/>
@@ -9882,45 +10425,6 @@
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -9978,7 +10482,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations xWindow="1629" yWindow="1417" count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Catégorie de la tâche" prompt="_x000a_Veuillez saisir la catégorie de la tâche._x000a__x000a_Essentielle -&gt; obligatoire_x000a_Souhaitable -&gt; envisagée_x000a_Optionnelle -&gt; facultative" sqref="I16:I65" xr:uid="{DD0CD761-E4CE-42EA-98B7-B4FB43663207}">
       <formula1>ListeCategorie</formula1>
     </dataValidation>
@@ -10033,7 +10537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C8C552-AE5F-48A4-9B18-A93F0BCBDB63}">
   <dimension ref="B1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10083,19 +10587,19 @@
       </c>
       <c r="D5" s="8">
         <f>COUNTIF(Sprint,D4)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(Sprint,E4)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F5" s="8">
         <f>COUNTIF(Sprint,F4)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G5" s="25">
         <f>SUM(C5:F5)</f>
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
@@ -10108,36 +10612,36 @@
       </c>
       <c r="D6" s="10">
         <f>SUMIFS(Duree, Sprint,D4)</f>
-        <v>0.95833333333333437</v>
+        <v>1.7499999999999978</v>
       </c>
       <c r="E6" s="10">
         <f>SUMIFS(Duree, Sprint,E4)</f>
-        <v>0</v>
+        <v>1.7187500000000153</v>
       </c>
       <c r="F6" s="10">
         <f>SUMIFS(Duree, Sprint,F4)</f>
-        <v>0</v>
+        <v>0.96875000000000144</v>
       </c>
       <c r="G6" s="26">
         <f>SUM(C6:F6)</f>
-        <v>2.8229166666627941</v>
+        <v>6.3020833333294748</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
     </row>
     <row r="10" spans="2:13" ht="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -10167,25 +10671,25 @@
   <sheetData>
     <row r="1" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
     </row>
     <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">

--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1649508\Downloads\GreenFlag\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GENES\Documents\School\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6949BBF6-31EE-4896-BEC4-495DA666B2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAE404-520C-4C4A-BB34-C6259DD59E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1224,18 +1224,21 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1251,13 +1254,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1419,7 +1415,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1481,7 +1477,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1672,7 +1668,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1793,7 +1789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1827,7 +1823,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1841,7 +1837,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1903,7 +1899,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1965,7 +1961,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2082,7 +2078,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2199,7 +2195,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2318,7 +2314,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2439,7 +2435,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671525696"/>
@@ -2498,7 +2494,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671528216"/>
@@ -2540,7 +2536,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2574,7 +2570,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2588,7 +2584,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2650,7 +2646,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2892,7 +2888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="588507136"/>
@@ -2951,7 +2947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="588508216"/>
@@ -2993,7 +2989,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3027,7 +3023,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3041,7 +3037,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3103,7 +3099,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3345,7 +3341,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671530016"/>
@@ -3404,7 +3400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="671533256"/>
@@ -3446,7 +3442,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3480,7 +3476,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3494,7 +3490,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3556,7 +3552,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3798,7 +3794,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="473329656"/>
@@ -3857,7 +3853,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="473329296"/>
@@ -3899,7 +3895,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3933,7 +3929,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7505,86 +7501,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:G54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.6328125" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.54296875" style="2" customWidth="1"/>
-    <col min="15" max="18" width="9.26953125" style="1"/>
+    <col min="6" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.5703125" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.28515625" style="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="9.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="27" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="9.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.26953125" style="1"/>
+    <col min="20" max="21" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="27" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:31" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:31" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:31" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-    </row>
-    <row r="3" spans="2:31" ht="12.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="45" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="2:31" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-    </row>
-    <row r="6" spans="2:31" ht="6.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
         <v>2</v>
@@ -7596,17 +7592,17 @@
         <v>29</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="47" t="s">
+      <c r="J7" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>1</v>
       </c>
@@ -7622,7 +7618,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>2</v>
       </c>
@@ -7638,7 +7634,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C10" s="8">
         <v>3</v>
       </c>
@@ -7650,7 +7646,7 @@
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>4</v>
       </c>
@@ -7661,23 +7657,23 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
       <c r="U13" s="2">
         <f>D68</f>
         <v>42</v>
@@ -7687,17 +7683,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="6.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="D15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
@@ -7744,16 +7740,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="49" t="s">
+      <c r="D16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
         <v>17</v>
@@ -7788,16 +7784,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="32">
         <v>1</v>
       </c>
@@ -7857,16 +7853,16 @@
         <v>1.8645833333294597</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="34">
         <v>2</v>
       </c>
@@ -7930,16 +7926,16 @@
         <v>1.7499999999999978</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="32">
         <v>3</v>
       </c>
@@ -8003,16 +7999,16 @@
         <v>1.7187500000000153</v>
       </c>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>5</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
         <v>17</v>
@@ -8062,16 +8058,16 @@
         <v>0.96875000000000144</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="32">
         <v>5</v>
       </c>
@@ -8108,16 +8104,16 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="42" t="s">
+      <c r="D22" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="34">
         <v>5</v>
       </c>
@@ -8150,16 +8146,16 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>8</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="32">
         <v>5</v>
       </c>
@@ -8201,16 +8197,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="42" t="s">
+      <c r="D24" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="34">
         <v>6</v>
       </c>
@@ -8255,16 +8251,16 @@
         <v>3.7395833333294766</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="32">
         <v>6</v>
       </c>
@@ -8309,16 +8305,16 @@
         <v>1.1770833333333304</v>
       </c>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>11</v>
       </c>
-      <c r="D26" s="42" t="s">
+      <c r="D26" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="34">
         <v>8</v>
       </c>
@@ -8363,16 +8359,16 @@
         <v>1.385416666666667</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>12</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="32">
         <v>5</v>
       </c>
@@ -8417,16 +8413,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>13</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="34">
         <v>8</v>
       </c>
@@ -8471,16 +8467,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>14</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="32">
         <v>8</v>
       </c>
@@ -8513,16 +8509,16 @@
         <v>0.13541666666666699</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>15</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="34">
         <v>13</v>
       </c>
@@ -8561,16 +8557,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="32">
         <v>14</v>
       </c>
@@ -8614,16 +8610,16 @@
         <v>5.9479166666628061</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>17</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="34">
         <v>14</v>
       </c>
@@ -8667,16 +8663,16 @@
         <v>0.22916666666666702</v>
       </c>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>18</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="32">
         <v>12</v>
       </c>
@@ -8720,16 +8716,16 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>19</v>
       </c>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="34">
         <v>12</v>
       </c>
@@ -8762,16 +8758,16 @@
         <v>0.187499999999998</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
         <v>20</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="32">
         <v>12</v>
       </c>
@@ -8810,16 +8806,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="13">
         <v>21</v>
       </c>
-      <c r="D36" s="42" t="s">
+      <c r="D36" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="34">
         <v>10</v>
       </c>
@@ -8863,16 +8859,16 @@
         <v>1.3854166666666685</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
         <v>22</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="32">
         <v>9</v>
       </c>
@@ -8916,16 +8912,16 @@
         <v>2.1666666666666896</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="13">
         <v>23</v>
       </c>
-      <c r="D38" s="42" t="s">
+      <c r="D38" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="34">
         <v>15</v>
       </c>
@@ -8969,16 +8965,16 @@
         <v>2.749999999996116</v>
       </c>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="12">
         <v>24</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="32">
         <v>15</v>
       </c>
@@ -9011,16 +9007,16 @@
         <v>0.27083333333333998</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="13">
         <v>25</v>
       </c>
-      <c r="D40" s="42" t="s">
+      <c r="D40" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="34">
         <v>10</v>
       </c>
@@ -9059,16 +9055,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="12">
         <v>26</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="32">
         <v>23</v>
       </c>
@@ -9112,16 +9108,16 @@
         <v>2.3437500000000249</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="13">
         <v>27</v>
       </c>
-      <c r="D42" s="42" t="s">
+      <c r="D42" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="34">
         <v>10</v>
       </c>
@@ -9165,16 +9161,16 @@
         <v>2.6666666666627665</v>
       </c>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="12">
         <v>28</v>
       </c>
-      <c r="D43" s="41" t="s">
+      <c r="D43" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="32">
         <v>10</v>
       </c>
@@ -9218,16 +9214,16 @@
         <v>1.2916666666666825</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="34">
         <v>20</v>
       </c>
@@ -9260,16 +9256,16 @@
         <v>0.37500000000002298</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="41" t="s">
+      <c r="D45" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="32">
         <v>12</v>
       </c>
@@ -9302,16 +9298,16 @@
         <v>0.39583333333336002</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="13">
         <v>31</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="34">
         <v>20</v>
       </c>
@@ -9344,16 +9340,16 @@
         <v>0.416666666666696</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="12">
         <v>32</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
       <c r="H47" s="32">
         <v>22</v>
       </c>
@@ -9386,16 +9382,16 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="13">
         <v>33</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="34">
         <v>19</v>
       </c>
@@ -9428,21 +9424,21 @@
         <v>0.49999999999997102</v>
       </c>
     </row>
-    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="12">
         <v>34</v>
       </c>
-      <c r="D49" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
+      <c r="D49" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J49" s="32">
         <v>2</v>
@@ -9451,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="33">
-        <v>0.125</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M49" s="32" t="s">
         <v>16</v>
@@ -9473,16 +9469,16 @@
         <v>0.54166666666660801</v>
       </c>
     </row>
-    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="13">
         <v>35</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="34">
         <v>10</v>
       </c>
@@ -9518,16 +9514,16 @@
         <v>0.583333333333245</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="12">
         <v>36</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="D51" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="32">
         <v>25</v>
       </c>
@@ -9563,24 +9559,40 @@
         <v>0.62499999999988298</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="13">
         <v>37</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="34"/>
-      <c r="N52" s="34"/>
+      <c r="D52" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="34">
+        <v>16</v>
+      </c>
+      <c r="I52" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="34">
+        <v>2</v>
+      </c>
+      <c r="K52" s="34">
+        <v>1</v>
+      </c>
+      <c r="L52" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M52" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T52" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U52" s="2">
         <v>36</v>
@@ -9592,24 +9604,40 @@
         <v>0.66666666666652097</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="12">
         <v>38</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="D53" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
+      <c r="H53" s="32">
+        <v>34</v>
+      </c>
+      <c r="I53" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="32">
+        <v>1</v>
+      </c>
+      <c r="K53" s="32">
+        <v>1</v>
+      </c>
+      <c r="L53" s="33">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="M53" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N53" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T53" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="2">
         <v>37</v>
@@ -9621,24 +9649,40 @@
         <v>0.70833333333315895</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="13">
         <v>39</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="34"/>
+      <c r="D54" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="34">
+        <v>13</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54" s="34">
+        <v>2</v>
+      </c>
+      <c r="K54" s="34">
+        <v>3</v>
+      </c>
+      <c r="L54" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T54" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" s="2">
         <v>38</v>
@@ -9650,38 +9694,24 @@
         <v>0.74999999999979705</v>
       </c>
     </row>
-    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
       <c r="H55" s="32"/>
-      <c r="I55" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J55" s="32">
-        <v>2</v>
-      </c>
-      <c r="K55" s="32">
-        <v>1</v>
-      </c>
-      <c r="L55" s="33">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="M55" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N55" s="32" t="s">
-        <v>21</v>
-      </c>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" s="2">
         <v>39</v>
@@ -9693,38 +9723,24 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="13">
         <v>41</v>
       </c>
-      <c r="D56" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="42"/>
-      <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="34"/>
-      <c r="I56" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="34">
-        <v>1</v>
-      </c>
-      <c r="K56" s="34">
-        <v>1</v>
-      </c>
-      <c r="L56" s="35">
-        <v>0.104166666666667</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="N56" s="34" t="s">
-        <v>21</v>
-      </c>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
       <c r="T56" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" s="2">
         <v>40</v>
@@ -9736,14 +9752,14 @@
         <v>0.83333333333307302</v>
       </c>
     </row>
-    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="12">
         <v>42</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="41"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
@@ -9765,38 +9781,24 @@
         <v>0.87499999999947897</v>
       </c>
     </row>
-    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="13">
         <v>43</v>
       </c>
-      <c r="D58" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="E58" s="42"/>
-      <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="34"/>
-      <c r="I58" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="J58" s="34">
-        <v>2</v>
-      </c>
-      <c r="K58" s="34">
-        <v>3</v>
-      </c>
-      <c r="L58" s="35">
-        <v>0.125</v>
-      </c>
-      <c r="M58" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="N58" s="34" t="s">
-        <v>21</v>
-      </c>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34"/>
       <c r="T58" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" s="2">
         <v>42</v>
@@ -9808,14 +9810,14 @@
         <v>0.91666666666588603</v>
       </c>
     </row>
-    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C59" s="12">
         <v>44</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
@@ -9837,14 +9839,14 @@
         <v>0.95833333333229298</v>
       </c>
     </row>
-    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="13">
         <v>45</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="34"/>
       <c r="I60" s="34"/>
       <c r="J60" s="34"/>
@@ -9866,16 +9868,16 @@
         <v>0.99999999999870004</v>
       </c>
     </row>
-    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="12">
         <v>46</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
         <v>17</v>
@@ -9909,16 +9911,16 @@
         <v>1.04166666666511</v>
       </c>
     </row>
-    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="13">
         <v>47</v>
       </c>
-      <c r="D62" s="42" t="s">
+      <c r="D62" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
         <v>17</v>
@@ -9952,16 +9954,16 @@
         <v>1.0833333333315101</v>
       </c>
     </row>
-    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="12">
         <v>48</v>
       </c>
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32" t="s">
         <v>17</v>
@@ -9995,14 +9997,14 @@
         <v>1.1249999999979201</v>
       </c>
     </row>
-    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C64" s="13">
         <v>49</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -10024,14 +10026,14 @@
         <v>1.1666666666643299</v>
       </c>
     </row>
-    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="14">
         <v>50</v>
       </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
@@ -10053,7 +10055,7 @@
         <v>1.20833333333073</v>
       </c>
     </row>
-    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -10068,7 +10070,7 @@
         <v>1.2499999999971401</v>
       </c>
     </row>
-    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -10081,7 +10083,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
         <v>42</v>
@@ -10103,7 +10105,7 @@
         <v>1.2916666666635499</v>
       </c>
     </row>
-    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -10118,7 +10120,7 @@
         <v>1.33333333332996</v>
       </c>
     </row>
-    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -10133,7 +10135,7 @@
         <v>1.37499999999636</v>
       </c>
     </row>
-    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -10148,7 +10150,7 @@
         <v>1.4166666666627701</v>
       </c>
     </row>
-    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -10163,7 +10165,7 @@
         <v>1.4583333333291799</v>
       </c>
     </row>
-    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -10178,7 +10180,7 @@
         <v>1.49999999999558</v>
       </c>
     </row>
-    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -10193,7 +10195,7 @@
         <v>1.54166666666199</v>
       </c>
     </row>
-    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -10208,7 +10210,7 @@
         <v>1.5833333333284001</v>
       </c>
     </row>
-    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -10223,7 +10225,7 @@
         <v>1.6249999999948099</v>
       </c>
     </row>
-    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -10238,7 +10240,7 @@
         <v>1.66666666666121</v>
       </c>
     </row>
-    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -10253,7 +10255,7 @@
         <v>1.7083333333276201</v>
       </c>
     </row>
-    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -10268,7 +10270,7 @@
         <v>1.7499999999940301</v>
       </c>
     </row>
-    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -10283,87 +10285,87 @@
         <v>1.79166666666043</v>
       </c>
     </row>
-    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y81" s="9">
         <v>1.83333333332684</v>
       </c>
     </row>
-    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y82" s="9">
         <v>1.8749999999932501</v>
       </c>
     </row>
-    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y83" s="9">
         <v>1.9166666666596599</v>
       </c>
     </row>
-    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y84" s="9">
         <v>1.95833333332606</v>
       </c>
     </row>
-    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y85" s="9">
         <v>1.99999999999247</v>
       </c>
     </row>
-    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y86" s="9">
         <v>2.0416666666588701</v>
       </c>
     </row>
-    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y87" s="9">
         <v>2.0833333333252799</v>
       </c>
     </row>
-    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y88" s="9">
         <v>2.1249999999916902</v>
       </c>
     </row>
-    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="9">
         <v>2.1666666666580898</v>
       </c>
     </row>
-    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="9">
         <v>2.2083333333245001</v>
       </c>
     </row>
-    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="9">
         <v>2.2499999999909099</v>
       </c>
     </row>
-    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="9">
         <v>2.2916666666573202</v>
       </c>
     </row>
-    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="9">
         <v>2.3333333333237198</v>
       </c>
     </row>
-    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y94" s="9">
         <v>2.3749999999901301</v>
       </c>
     </row>
-    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y95" s="9">
         <v>2.41666666665654</v>
       </c>
     </row>
-    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y96" s="9">
         <v>2.45833333332294</v>
       </c>
     </row>
-    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y97" s="9">
         <v>2.4999999999893499</v>
       </c>
@@ -10371,44 +10373,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tjqSiT+XspradLJBNpu0viI4TokIDIF0O7QeXm3BTZLmeAfSOw5TlniSFfStQ9LXJLtK7gLyf3B6jINr+qJ+Cg==" saltValue="/wSmyHkNAfBsPbW8NILu1w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="54">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D65:G65"/>
@@ -10425,6 +10389,44 @@
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -10541,25 +10543,25 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.36328125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="2:13" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
         <v>13</v>
@@ -10577,7 +10579,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
@@ -10602,7 +10604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
@@ -10627,23 +10629,23 @@
         <v>6.3020833333294748</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-    </row>
-    <row r="10" spans="2:13" ht="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+    </row>
+    <row r="10" spans="2:13" ht="10.7" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7jx2YjRECZ6o8Bp/12l6CT33ZUxVZFIE8DruIq28qeqGO2CO/14nabG1jCRVqb35hCSmvSIufKDGdWZOjYPEuQ==" saltValue="Nt1swAwRwjrWuMUX30XPfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="2">
@@ -10663,178 +10665,178 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="2.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="50" t="s">
+    <row r="1" spans="2:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-    </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D5" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D6" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D13" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D14" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D15" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D17" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D18" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C22" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E29" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="E30" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="E31" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Dzyfz6Pvoe1+wPoVjXKJsRTFywgjIP8eSEZi7eXOnUCA2h3K3cNX0zQIho1YSjNBBIX99v4/FYUmXsSWPOGxxw==" saltValue="B5CvoY9Z3hcMlbc34txcfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GENES\Documents\School\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FAE404-520C-4C4A-BB34-C6259DD59E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE01F0-E5FB-4426-8748-8A4EA10DD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
   <si>
     <t>Planification</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pages de confirmation email, page de menu (settings) </t>
+  </si>
+  <si>
+    <t>Creation des vues et indexs dans la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1730,7 @@
                   <c:v>1.8645833333294597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7499999999999978</c:v>
+                  <c:v>1.8333333333333313</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.7187500000000153</c:v>
@@ -2130,10 +2133,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7499999999999978</c:v>
+                  <c:v>1.8333333333333313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2702,10 +2705,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.9479166666628061</c:v>
+                  <c:v>6.0312499999961391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3214,10 +3217,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.1666666666666896</c:v>
+                  <c:v>2.2500000000000231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3608,10 +3611,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3437500000000249</c:v>
+                  <c:v>2.4270833333333579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7501,8 +7504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53:G53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7676,7 +7679,7 @@
       <c r="N13" s="47"/>
       <c r="U13" s="2">
         <f>D68</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA13" s="2">
         <f>N7</f>
@@ -7919,11 +7922,11 @@
       </c>
       <c r="AD18" s="1">
         <f>COUNTIF(Sprint,AC18)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE18" s="19">
         <f>SUMIFS(Duree, Sprint,AC18)</f>
-        <v>1.7499999999999978</v>
+        <v>1.8333333333333313</v>
       </c>
     </row>
     <row r="19" spans="3:31" x14ac:dyDescent="0.2">
@@ -8244,11 +8247,11 @@
       </c>
       <c r="AD24" s="1">
         <f>COUNTIF(Responsabilite,AC24)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE24" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC24)</f>
-        <v>3.7395833333294766</v>
+        <v>3.82291666666281</v>
       </c>
     </row>
     <row r="25" spans="3:31" x14ac:dyDescent="0.2">
@@ -8406,7 +8409,7 @@
       </c>
       <c r="AD27" s="1">
         <f>COUNTIF(Responsabilite,AC27)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE27" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC27)</f>
@@ -8460,7 +8463,7 @@
       </c>
       <c r="AD28" s="1">
         <f>COUNTIF(Responsabilite,AC28)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE28" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC28)</f>
@@ -8603,11 +8606,11 @@
       </c>
       <c r="AD31" s="1">
         <f>COUNTIF(Categorie,AC31)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AE31" s="19">
         <f>SUMIFS(Duree, Categorie,AC31)</f>
-        <v>5.9479166666628061</v>
+        <v>6.0312499999961391</v>
       </c>
     </row>
     <row r="32" spans="3:31" x14ac:dyDescent="0.2">
@@ -8763,28 +8766,28 @@
         <v>20</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="32">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K35" s="32">
         <v>1</v>
       </c>
       <c r="L35" s="33">
-        <v>6.25E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35" s="32" t="s">
         <v>21</v>
@@ -8811,31 +8814,31 @@
         <v>21</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
       <c r="H36" s="34">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J36" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K36" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36" s="35">
-        <v>0.125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M36" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T36" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8864,25 +8867,25 @@
         <v>22</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="32">
+        <v>2</v>
+      </c>
+      <c r="K37" s="32">
         <v>3</v>
       </c>
-      <c r="K37" s="32">
-        <v>2</v>
-      </c>
       <c r="L37" s="33">
-        <v>0.20833333333333001</v>
+        <v>0.125</v>
       </c>
       <c r="M37" s="32" t="s">
         <v>15</v>
@@ -8905,11 +8908,11 @@
       </c>
       <c r="AD37" s="1">
         <f>COUNTIF(Difficulte,W18)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AE37" s="19">
         <f>SUMIFS(Duree, Difficulte,W18)</f>
-        <v>2.1666666666666896</v>
+        <v>2.2500000000000231</v>
       </c>
     </row>
     <row r="38" spans="3:31" x14ac:dyDescent="0.2">
@@ -8917,31 +8920,31 @@
         <v>23</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" s="40"/>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="34">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K38" s="34">
         <v>2</v>
       </c>
       <c r="L38" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.20833333333333001</v>
       </c>
       <c r="M38" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T38" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8970,7 +8973,7 @@
         <v>24</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E39" s="43"/>
       <c r="F39" s="43"/>
@@ -8988,13 +8991,13 @@
         <v>2</v>
       </c>
       <c r="L39" s="33">
-        <v>6.25E-2</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M39" s="32" t="s">
         <v>15</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T39" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9012,13 +9015,13 @@
         <v>25</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="E40" s="40"/>
       <c r="F40" s="40"/>
       <c r="G40" s="40"/>
       <c r="H40" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I40" s="34" t="s">
         <v>17</v>
@@ -9030,7 +9033,7 @@
         <v>2</v>
       </c>
       <c r="L40" s="35">
-        <v>0.14583333333333401</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>15</v>
@@ -9060,25 +9063,25 @@
         <v>26</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="32">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L41" s="33">
-        <v>0.33333333333335002</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>15</v>
@@ -9101,11 +9104,11 @@
       </c>
       <c r="AD41" s="1">
         <f>COUNTIF(Incertitude,X17)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE41" s="19">
         <f>SUMIFS(Duree, Incertitude,X17)</f>
-        <v>2.3437500000000249</v>
+        <v>2.4270833333333579</v>
       </c>
     </row>
     <row r="42" spans="3:31" x14ac:dyDescent="0.2">
@@ -9113,25 +9116,25 @@
         <v>27</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E42" s="40"/>
       <c r="F42" s="40"/>
       <c r="G42" s="40"/>
       <c r="H42" s="34">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K42" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L42" s="35">
-        <v>0.125</v>
+        <v>0.33333333333335002</v>
       </c>
       <c r="M42" s="34" t="s">
         <v>15</v>
@@ -9166,7 +9169,7 @@
         <v>28</v>
       </c>
       <c r="D43" s="43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E43" s="43"/>
       <c r="F43" s="43"/>
@@ -9184,13 +9187,13 @@
         <v>1</v>
       </c>
       <c r="L43" s="33">
-        <v>0.13541666666666699</v>
+        <v>0.125</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>15</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T43" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9219,13 +9222,13 @@
         <v>29</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="40"/>
       <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>17</v>
@@ -9237,7 +9240,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="35">
-        <v>0.125</v>
+        <v>0.13541666666666699</v>
       </c>
       <c r="M44" s="34" t="s">
         <v>15</v>
@@ -9261,13 +9264,13 @@
         <v>30</v>
       </c>
       <c r="D45" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E45" s="43"/>
       <c r="F45" s="43"/>
       <c r="G45" s="43"/>
       <c r="H45" s="32">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I45" s="32" t="s">
         <v>17</v>
@@ -9279,13 +9282,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="33">
-        <v>0.14583333333333401</v>
+        <v>0.125</v>
       </c>
       <c r="M45" s="32" t="s">
         <v>15</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T45" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9303,31 +9306,31 @@
         <v>31</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E46" s="40"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
       <c r="H46" s="34">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J46" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K46" s="34">
         <v>1</v>
       </c>
       <c r="L46" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M46" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>ISBLANK(D46)</f>
@@ -9345,13 +9348,13 @@
         <v>32</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>17</v>
@@ -9360,7 +9363,7 @@
         <v>2</v>
       </c>
       <c r="K47" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" s="33">
         <v>8.3333333333333398E-2</v>
@@ -9387,31 +9390,31 @@
         <v>33</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
       <c r="G48" s="40"/>
       <c r="H48" s="34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K48" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L48" s="35">
-        <v>0.125</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T48" s="1" t="b">
         <f t="shared" ref="T48:T65" si="4">ISBLANK(D48)</f>
@@ -9429,31 +9432,31 @@
         <v>34</v>
       </c>
       <c r="D49" s="43" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
       <c r="G49" s="43"/>
       <c r="H49" s="32">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J49" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" s="32">
         <v>1</v>
       </c>
       <c r="L49" s="33">
-        <v>0.104166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="M49" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T49" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9474,13 +9477,13 @@
         <v>35</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
       <c r="G50" s="40"/>
       <c r="H50" s="34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>17</v>
@@ -9492,13 +9495,13 @@
         <v>1</v>
       </c>
       <c r="L50" s="35">
-        <v>0.14583333333333401</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M50" s="34" t="s">
         <v>16</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T50" s="1" t="b">
         <f>ISBLANK(D50)</f>
@@ -9519,31 +9522,31 @@
         <v>36</v>
       </c>
       <c r="D51" s="43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
       <c r="G51" s="43"/>
       <c r="H51" s="32">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J51" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K51" s="32">
         <v>1</v>
       </c>
       <c r="L51" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M51" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T51" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9564,31 +9567,31 @@
         <v>37</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
       <c r="G52" s="40"/>
       <c r="H52" s="34">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J52" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="34">
         <v>1</v>
       </c>
       <c r="L52" s="35">
-        <v>0.125</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M52" s="34" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T52" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9609,25 +9612,25 @@
         <v>38</v>
       </c>
       <c r="D53" s="43" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="E53" s="43"/>
       <c r="F53" s="43"/>
       <c r="G53" s="43"/>
       <c r="H53" s="32">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I53" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J53" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" s="32">
         <v>1</v>
       </c>
       <c r="L53" s="33">
-        <v>0.104166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="M53" s="32" t="s">
         <v>16</v>
@@ -9654,25 +9657,25 @@
         <v>39</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
       <c r="H54" s="34">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J54" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L54" s="35">
-        <v>0.125</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M54" s="34" t="s">
         <v>16</v>
@@ -9698,20 +9701,36 @@
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="43"/>
+      <c r="D55" s="43" t="s">
+        <v>111</v>
+      </c>
       <c r="E55" s="43"/>
       <c r="F55" s="43"/>
       <c r="G55" s="43"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="H55" s="32">
+        <v>13</v>
+      </c>
+      <c r="I55" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55" s="32">
+        <v>2</v>
+      </c>
+      <c r="K55" s="32">
+        <v>3</v>
+      </c>
+      <c r="L55" s="33">
+        <v>0.125</v>
+      </c>
+      <c r="M55" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N55" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" s="2">
         <v>39</v>
@@ -10086,7 +10105,7 @@
     <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -10094,7 +10113,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="9">
         <f>SUM(L16:L65)</f>
-        <v>6.302083333329473</v>
+        <v>6.3854166666628061</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10589,7 +10608,7 @@
       </c>
       <c r="D5" s="8">
         <f>COUNTIF(Sprint,D4)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(Sprint,E4)</f>
@@ -10601,7 +10620,7 @@
       </c>
       <c r="G5" s="25">
         <f>SUM(C5:F5)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
@@ -10614,7 +10633,7 @@
       </c>
       <c r="D6" s="10">
         <f>SUMIFS(Duree, Sprint,D4)</f>
-        <v>1.7499999999999978</v>
+        <v>1.8333333333333313</v>
       </c>
       <c r="E6" s="10">
         <f>SUMIFS(Duree, Sprint,E4)</f>
@@ -10626,7 +10645,7 @@
       </c>
       <c r="G6" s="26">
         <f>SUM(C6:F6)</f>
-        <v>6.3020833333294748</v>
+        <v>6.3854166666628078</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">

--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GENES\Documents\School\GreenFlag\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\---- GREEEN FLAG ----------\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BE01F0-E5FB-4426-8748-8A4EA10DD25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D25D10-8AA2-4B52-9FD9-1ABC9FD36061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -383,7 +383,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="119">
   <si>
     <t>Planification</t>
   </si>
@@ -754,12 +754,6 @@
     <t>Algorithme de matching meanshift</t>
   </si>
   <si>
-    <t>les DAO</t>
-  </si>
-  <si>
-    <t>ChatroomManager et websocket</t>
-  </si>
-  <si>
     <t>backend: abstract Strategy + AlgoStrategy</t>
   </si>
   <si>
@@ -769,18 +763,9 @@
     <t>bibliotheque: middleware</t>
   </si>
   <si>
-    <t>trigger &amp; fonction pour tableau suggestion dans la base de données</t>
-  </si>
-  <si>
     <t>page Statistiques React</t>
   </si>
   <si>
-    <t>classe Statistics backend + fonctions statistiques base de données</t>
-  </si>
-  <si>
-    <t>Composantes React: Home, Login, Create account page, Questionnaire page - de base</t>
-  </si>
-  <si>
     <t>Page de suggestions en React (sans swipe, juste boutons) - de base</t>
   </si>
   <si>
@@ -793,12 +778,6 @@
     <t>TestSimulator + UserFactory 1ere version</t>
   </si>
   <si>
-    <t>les Manager: Account, Matching</t>
-  </si>
-  <si>
-    <t>NotificationManager</t>
-  </si>
-  <si>
     <t>classe User</t>
   </si>
   <si>
@@ -847,10 +826,46 @@
     <t>API localisation dans le frontend + introduction dans l'algo</t>
   </si>
   <si>
-    <t xml:space="preserve">Pages de confirmation email, page de menu (settings) </t>
-  </si>
-  <si>
     <t>Creation des vues et indexs dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Mode jour/nuit</t>
+  </si>
+  <si>
+    <t>Login, Logout, Créer profil - AccountManager</t>
+  </si>
+  <si>
+    <t>Composantes React: Home, Login, Create account page</t>
+  </si>
+  <si>
+    <t>Page de questionnaire - React &amp; base de données</t>
+  </si>
+  <si>
+    <t>abstract class DAO &amp; AccountDAO</t>
+  </si>
+  <si>
+    <t>MatchingDAO</t>
+  </si>
+  <si>
+    <t>ChatroomManager et websocket + ChatDAO</t>
+  </si>
+  <si>
+    <t>NotificationManager + NotificationDAO</t>
+  </si>
+  <si>
+    <t>classe Statistics backend + StatsDAO + fonctions statistiques base de données</t>
+  </si>
+  <si>
+    <t>MatchingManager - logique de swiping &amp; matching</t>
+  </si>
+  <si>
+    <t>Modification mot de passe / reinitialisation mot de passe - backend + frontend</t>
+  </si>
+  <si>
+    <t>Pages de confirmation email, page de menu (settings) - effacer profil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trigger &amp; fonction pour tableau suggestion dans la base de données </t>
   </si>
 </sst>
 </file>
@@ -1230,18 +1245,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1257,6 +1265,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1418,7 +1433,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1730,13 +1745,13 @@
                   <c:v>1.8645833333294597</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8333333333333313</c:v>
+                  <c:v>1.8854166666666743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7187500000000153</c:v>
+                  <c:v>1.8750000000000202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96875000000000144</c:v>
+                  <c:v>2.4270833333333486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,7 +1855,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2133,10 +2148,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8333333333333313</c:v>
+                  <c:v>1.8854166666666743</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,10 +2265,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>13</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7187500000000153</c:v>
+                  <c:v>1.8750000000000202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,10 +2384,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>10</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96875000000000144</c:v>
+                  <c:v>2.4270833333333486</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2587,7 +2602,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2705,10 +2720,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>40</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0312499999961391</c:v>
+                  <c:v>7.2291666666628389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,10 +2779,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22916666666666702</c:v>
+                  <c:v>0.624999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,10 +2838,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.125</c:v>
+                  <c:v>0.19791666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3040,7 +3055,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3158,10 +3173,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3854166666666685</c:v>
+                  <c:v>1.5520833333333355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3217,10 +3232,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2500000000000231</c:v>
+                  <c:v>2.7291666666666843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3276,10 +3291,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.749999999996116</c:v>
+                  <c:v>3.7708333333294841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,7 +3508,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3611,10 +3626,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>24</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4270833333333579</c:v>
+                  <c:v>2.8645833333333544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3673,7 +3688,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6666666666627665</c:v>
+                  <c:v>2.9583333333294384</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,10 +3744,10 @@
                 <c:formatCode>[hh]:mm</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2916666666666825</c:v>
+                  <c:v>2.2291666666667105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,86 +7519,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AF97"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61:G61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="1" customWidth="1"/>
     <col min="4" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.5703125" style="2" customWidth="1"/>
-    <col min="15" max="18" width="9.28515625" style="1"/>
+    <col min="6" max="7" width="11.54296875" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.54296875" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.26953125" style="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="27" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.28515625" style="1"/>
+    <col min="20" max="21" width="9.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="27" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="9.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:31" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-    </row>
-    <row r="3" spans="2:31" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="46" t="s">
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="2:31" ht="12.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-    </row>
-    <row r="6" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
         <v>2</v>
@@ -7595,17 +7610,17 @@
         <v>29</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>1</v>
       </c>
@@ -7621,7 +7636,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
         <v>2</v>
       </c>
@@ -7637,7 +7652,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>3</v>
       </c>
@@ -7649,7 +7664,7 @@
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
         <v>4</v>
       </c>
@@ -7660,43 +7675,43 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="U13" s="2">
         <f>D68</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="AA13" s="2">
         <f>N7</f>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="5" t="s">
         <v>11</v>
       </c>
@@ -7743,16 +7758,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
         <v>17</v>
@@ -7787,16 +7802,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="32">
         <v>1</v>
       </c>
@@ -7856,16 +7871,16 @@
         <v>1.8645833333294597</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="34">
         <v>2</v>
       </c>
@@ -7922,23 +7937,23 @@
       </c>
       <c r="AD18" s="1">
         <f>COUNTIF(Sprint,AC18)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AE18" s="19">
         <f>SUMIFS(Duree, Sprint,AC18)</f>
-        <v>1.8333333333333313</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+        <v>1.8854166666666743</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="32">
         <v>3</v>
       </c>
@@ -7995,23 +8010,23 @@
       </c>
       <c r="AD19" s="1">
         <f>COUNTIF(Sprint,AC19)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE19" s="19">
         <f>SUMIFS(Duree, Sprint,AC19)</f>
-        <v>1.7187500000000153</v>
-      </c>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+        <v>1.8750000000000202</v>
+      </c>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="13">
         <v>5</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
         <v>17</v>
@@ -8023,7 +8038,7 @@
         <v>2</v>
       </c>
       <c r="L20" s="35">
-        <v>4.1666666666666699E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M20" s="34" t="s">
         <v>14</v>
@@ -8054,23 +8069,23 @@
       </c>
       <c r="AD20" s="1">
         <f>COUNTIF(Sprint,AC20)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AE20" s="19">
         <f>SUMIFS(Duree, Sprint,AC20)</f>
-        <v>0.96875000000000144</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>2.4270833333333486</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="32">
         <v>5</v>
       </c>
@@ -8084,7 +8099,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M21" s="32" t="s">
         <v>14</v>
@@ -8107,16 +8122,16 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="34">
         <v>5</v>
       </c>
@@ -8130,7 +8145,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="35">
-        <v>4.1666666666666699E-2</v>
+        <v>7.2916666666666699E-2</v>
       </c>
       <c r="M22" s="34" t="s">
         <v>14</v>
@@ -8149,7 +8164,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C23" s="12">
         <v>8</v>
       </c>
@@ -8200,19 +8215,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="34">
-        <v>6</v>
-      </c>
+      <c r="D24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="34" t="s">
         <v>17</v>
       </c>
@@ -8247,25 +8260,25 @@
       </c>
       <c r="AD24" s="1">
         <f>COUNTIF(Responsabilite,AC24)</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE24" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC24)</f>
-        <v>3.82291666666281</v>
-      </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+        <v>4.7083333333294766</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I25" s="32" t="s">
         <v>17</v>
@@ -8277,7 +8290,7 @@
         <v>3</v>
       </c>
       <c r="L25" s="33">
-        <v>0.14583333333333401</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M25" s="32" t="s">
         <v>14</v>
@@ -8305,21 +8318,21 @@
       </c>
       <c r="AE25" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC25)</f>
-        <v>1.1770833333333304</v>
-      </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+        <v>1.3645833333333353</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C26" s="13">
         <v>11</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I26" s="34" t="s">
         <v>17</v>
@@ -8331,13 +8344,13 @@
         <v>3</v>
       </c>
       <c r="L26" s="35">
-        <v>0.22916666666666666</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M26" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T26" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8355,25 +8368,25 @@
       </c>
       <c r="AD26" s="1">
         <f>COUNTIF(Responsabilite,AC26)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC26)</f>
-        <v>1.385416666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+        <v>1.9791666666666921</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C27" s="12">
         <v>12</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="D27" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="32">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I27" s="32" t="s">
         <v>17</v>
@@ -8382,16 +8395,16 @@
         <v>3</v>
       </c>
       <c r="K27" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M27" s="32" t="s">
         <v>14</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T27" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8409,23 +8422,23 @@
       </c>
       <c r="AD27" s="1">
         <f>COUNTIF(Responsabilite,AC27)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE27" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC27)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C28" s="13">
         <v>13</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="34">
         <v>8</v>
       </c>
@@ -8439,13 +8452,13 @@
         <v>3</v>
       </c>
       <c r="L28" s="35">
-        <v>0.16666666666666599</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="M28" s="34" t="s">
         <v>14</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>ISBLANK(D28)</f>
@@ -8463,37 +8476,37 @@
       </c>
       <c r="AD28" s="1">
         <f>COUNTIF(Responsabilite,AC28)</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="19">
         <f>SUMIFS(Duree, Responsabilite,AC28)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C29" s="12">
         <v>14</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="D29" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I29" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M29" s="32" t="s">
         <v>14</v>
@@ -8512,24 +8525,24 @@
         <v>0.13541666666666699</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C30" s="13">
         <v>15</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
+      <c r="D30" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="34">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I30" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J30" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K30" s="34">
         <v>2</v>
@@ -8541,7 +8554,7 @@
         <v>14</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T30" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8560,36 +8573,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="D31" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="32">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I31" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J31" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K31" s="32">
         <v>3</v>
       </c>
       <c r="L31" s="33">
-        <v>0.16666666666666599</v>
+        <v>0.29166666666667701</v>
       </c>
       <c r="M31" s="32" t="s">
         <v>14</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T31" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8606,37 +8619,37 @@
       </c>
       <c r="AD31" s="1">
         <f>COUNTIF(Categorie,AC31)</f>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE31" s="19">
         <f>SUMIFS(Duree, Categorie,AC31)</f>
-        <v>6.0312499999961391</v>
-      </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+        <v>7.2291666666628389</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C32" s="13">
         <v>17</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="34">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I32" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J32" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K32" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L32" s="35">
-        <v>0.16666666666666599</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M32" s="34" t="s">
         <v>14</v>
@@ -8659,25 +8672,25 @@
       </c>
       <c r="AD32" s="1">
         <f>COUNTIF(Categorie,AC32)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE32" s="19">
         <f>SUMIFS(Duree, Categorie,AC32)</f>
-        <v>0.22916666666666702</v>
-      </c>
-    </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0.624999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="12">
         <v>18</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="D33" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="32" t="s">
         <v>17</v>
@@ -8686,7 +8699,7 @@
         <v>2</v>
       </c>
       <c r="K33" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L33" s="33">
         <v>0.16666666666666599</v>
@@ -8695,7 +8708,7 @@
         <v>14</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T33" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8712,43 +8725,43 @@
       </c>
       <c r="AD33" s="1">
         <f>COUNTIF(Categorie,AC33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="19">
         <f>SUMIFS(Duree, Categorie,AC33)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0.19791666666666669</v>
+      </c>
+    </row>
+    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="13">
         <v>19</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="D34" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="34">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J34" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L34" s="35">
-        <v>0.125</v>
+        <v>0.250000000000003</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T34" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8761,36 +8774,36 @@
         <v>0.187499999999998</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C35" s="12">
         <v>20</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="D35" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="32">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I35" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J35" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.33333333333335002</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T35" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8809,16 +8822,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C36" s="13">
         <v>21</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="D36" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="34">
         <v>12</v>
       </c>
@@ -8826,19 +8839,19 @@
         <v>17</v>
       </c>
       <c r="J36" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" s="34">
         <v>1</v>
       </c>
       <c r="L36" s="35">
-        <v>6.25E-2</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M36" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T36" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8855,25 +8868,25 @@
       </c>
       <c r="AD36" s="1">
         <f>COUNTIF(Difficulte,W17)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE36" s="19">
         <f>SUMIFS(Duree, Difficulte,W17)</f>
-        <v>1.3854166666666685</v>
-      </c>
-    </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
+        <v>1.5520833333333355</v>
+      </c>
+    </row>
+    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="12">
         <v>22</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="D37" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="32">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I37" s="32" t="s">
         <v>17</v>
@@ -8882,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37" s="33">
         <v>0.125</v>
@@ -8891,7 +8904,7 @@
         <v>15</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T37" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8908,43 +8921,43 @@
       </c>
       <c r="AD37" s="1">
         <f>COUNTIF(Difficulte,W18)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AE37" s="19">
         <f>SUMIFS(Duree, Difficulte,W18)</f>
-        <v>2.2500000000000231</v>
-      </c>
-    </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
+        <v>2.7291666666666843</v>
+      </c>
+    </row>
+    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="13">
         <v>23</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="D38" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="34">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I38" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J38" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L38" s="35">
-        <v>0.20833333333333001</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M38" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T38" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8961,43 +8974,43 @@
       </c>
       <c r="AD38" s="1">
         <f>COUNTIF(Difficulte,W19)</f>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AE38" s="19">
         <f>SUMIFS(Duree, Difficulte,W19)</f>
-        <v>2.749999999996116</v>
-      </c>
-    </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
+        <v>3.7708333333294841</v>
+      </c>
+    </row>
+    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="12">
         <v>24</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="D39" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I39" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J39" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K39" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L39" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M39" s="32" t="s">
         <v>15</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T39" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9010,18 +9023,18 @@
         <v>0.27083333333333998</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C40" s="13">
         <v>25</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
+      <c r="D40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="34">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I40" s="34" t="s">
         <v>17</v>
@@ -9030,16 +9043,16 @@
         <v>2</v>
       </c>
       <c r="K40" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L40" s="35">
-        <v>6.25E-2</v>
+        <v>0.16666666666666599</v>
       </c>
       <c r="M40" s="34" t="s">
         <v>15</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T40" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9058,36 +9071,36 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C41" s="12">
         <v>26</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="D41" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" s="32">
         <v>2</v>
       </c>
       <c r="L41" s="33">
-        <v>0.14583333333333401</v>
+        <v>0.250000000000003</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>15</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T41" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9104,37 +9117,37 @@
       </c>
       <c r="AD41" s="1">
         <f>COUNTIF(Incertitude,X17)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE41" s="19">
         <f>SUMIFS(Duree, Incertitude,X17)</f>
-        <v>2.4270833333333579</v>
-      </c>
-    </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
+        <v>2.8645833333333544</v>
+      </c>
+    </row>
+    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C42" s="13">
         <v>27</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
+      <c r="D42" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="34">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I42" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J42" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" s="35">
-        <v>0.33333333333335002</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M42" s="34" t="s">
         <v>15</v>
@@ -9161,19 +9174,19 @@
       </c>
       <c r="AE42" s="19">
         <f>SUMIFS(Duree, Incertitude,X18)</f>
-        <v>2.6666666666627665</v>
-      </c>
-    </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
+        <v>2.9583333333294384</v>
+      </c>
+    </row>
+    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="12">
         <v>28</v>
       </c>
-      <c r="D43" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="D43" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="32">
         <v>10</v>
       </c>
@@ -9181,13 +9194,13 @@
         <v>17</v>
       </c>
       <c r="J43" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K43" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" s="33">
-        <v>0.125</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>15</v>
@@ -9210,37 +9223,37 @@
       </c>
       <c r="AD43" s="1">
         <f>COUNTIF(Incertitude,X19)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AE43" s="19">
         <f>SUMIFS(Duree, Incertitude,X19)</f>
-        <v>1.2916666666666825</v>
-      </c>
-    </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
+        <v>2.2291666666667105</v>
+      </c>
+    </row>
+    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
+      <c r="D44" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I44" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L44" s="35">
-        <v>0.13541666666666699</v>
+        <v>0.187499999999998</v>
       </c>
       <c r="M44" s="34" t="s">
         <v>15</v>
@@ -9259,36 +9272,36 @@
         <v>0.37500000000002298</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="D45" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="32">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I45" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J45" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" s="32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" s="33">
-        <v>0.125</v>
+        <v>0.33333333333335002</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T45" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9301,18 +9314,18 @@
         <v>0.39583333333336002</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C46" s="13">
         <v>31</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
+      <c r="D46" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
         <v>17</v>
@@ -9324,13 +9337,13 @@
         <v>1</v>
       </c>
       <c r="L46" s="35">
-        <v>0.14583333333333401</v>
+        <v>0.125</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>ISBLANK(D46)</f>
@@ -9343,36 +9356,36 @@
         <v>0.416666666666696</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C47" s="12">
         <v>32</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
       <c r="H47" s="32">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="I47" s="32" t="s">
         <v>17</v>
       </c>
       <c r="J47" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K47" s="32">
         <v>1</v>
       </c>
       <c r="L47" s="33">
-        <v>8.3333333333333398E-2</v>
+        <v>0.13541666666666699</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T47" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9385,36 +9398,36 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C48" s="13">
         <v>33</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
+      <c r="D48" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I48" s="34" t="s">
         <v>17</v>
       </c>
       <c r="J48" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K48" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T48" s="1" t="b">
         <f t="shared" ref="T48:T65" si="4">ISBLANK(D48)</f>
@@ -9427,18 +9440,18 @@
         <v>0.49999999999997102</v>
       </c>
     </row>
-    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="12">
         <v>34</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="D49" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="32">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I49" s="32" t="s">
         <v>17</v>
@@ -9450,13 +9463,13 @@
         <v>1</v>
       </c>
       <c r="L49" s="33">
-        <v>0.125</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M49" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9472,18 +9485,18 @@
         <v>0.54166666666660801</v>
       </c>
     </row>
-    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13">
         <v>35</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
+      <c r="D50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="34">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I50" s="34" t="s">
         <v>17</v>
@@ -9495,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="35">
-        <v>0.104166666666667</v>
+        <v>0.125</v>
       </c>
       <c r="M50" s="34" t="s">
         <v>16</v>
@@ -9517,18 +9530,18 @@
         <v>0.583333333333245</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
         <v>36</v>
       </c>
-      <c r="D51" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="D51" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="32">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="I51" s="32" t="s">
         <v>17</v>
@@ -9537,7 +9550,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L51" s="33">
         <v>0.14583333333333401</v>
@@ -9546,7 +9559,7 @@
         <v>16</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="T51" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9562,18 +9575,18 @@
         <v>0.62499999999988298</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="13">
         <v>37</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
+      <c r="D52" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="34">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I52" s="34" t="s">
         <v>17</v>
@@ -9585,13 +9598,13 @@
         <v>1</v>
       </c>
       <c r="L52" s="35">
-        <v>8.3333333333333398E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M52" s="34" t="s">
         <v>16</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T52" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9607,21 +9620,21 @@
         <v>0.66666666666652097</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
         <v>38</v>
       </c>
-      <c r="D53" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="D53" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J53" s="32">
         <v>2</v>
@@ -9630,7 +9643,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="33">
-        <v>0.125</v>
+        <v>0.104166666666667</v>
       </c>
       <c r="M53" s="32" t="s">
         <v>16</v>
@@ -9652,36 +9665,36 @@
         <v>0.70833333333315895</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="13">
         <v>39</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
+      <c r="D54" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="34">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="I54" s="34" t="s">
         <v>12</v>
       </c>
       <c r="J54" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K54" s="34">
         <v>1</v>
       </c>
       <c r="L54" s="35">
-        <v>0.104166666666667</v>
+        <v>0.14583333333333401</v>
       </c>
       <c r="M54" s="34" t="s">
         <v>16</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="T54" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9697,36 +9710,36 @@
         <v>0.74999999999979705</v>
       </c>
     </row>
-    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="D55" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="32">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K55" s="32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L55" s="33">
-        <v>0.125</v>
+        <v>8.3333333333333398E-2</v>
       </c>
       <c r="M55" s="32" t="s">
         <v>16</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9742,24 +9755,40 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="13">
         <v>41</v>
       </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="34"/>
-      <c r="N56" s="34"/>
+      <c r="D56" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="34">
+        <v>16</v>
+      </c>
+      <c r="I56" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="34">
+        <v>2</v>
+      </c>
+      <c r="K56" s="34">
+        <v>1</v>
+      </c>
+      <c r="L56" s="35">
+        <v>0.20833333333333001</v>
+      </c>
+      <c r="M56" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N56" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T56" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56" s="2">
         <v>40</v>
@@ -9771,24 +9800,40 @@
         <v>0.83333333333307302</v>
       </c>
     </row>
-    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="12">
         <v>42</v>
       </c>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="32"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
+      <c r="D57" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="32">
+        <v>35</v>
+      </c>
+      <c r="I57" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="32">
+        <v>1</v>
+      </c>
+      <c r="K57" s="32">
+        <v>1</v>
+      </c>
+      <c r="L57" s="33">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="M57" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N57" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T57" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U57" s="2">
         <v>41</v>
@@ -9800,24 +9845,40 @@
         <v>0.87499999999947897</v>
       </c>
     </row>
-    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="13">
         <v>43</v>
       </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
+      <c r="D58" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="34">
+        <v>13</v>
+      </c>
+      <c r="I58" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J58" s="34">
+        <v>2</v>
+      </c>
+      <c r="K58" s="34">
+        <v>3</v>
+      </c>
+      <c r="L58" s="35">
+        <v>0.125</v>
+      </c>
+      <c r="M58" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N58" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T58" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" s="2">
         <v>42</v>
@@ -9829,24 +9890,38 @@
         <v>0.91666666666588603</v>
       </c>
     </row>
-    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="12">
         <v>44</v>
       </c>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="D59" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="32"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
+      <c r="I59" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J59" s="32">
+        <v>1</v>
+      </c>
+      <c r="K59" s="32">
+        <v>1</v>
+      </c>
+      <c r="L59" s="33">
+        <v>7.2916666666666699E-2</v>
+      </c>
+      <c r="M59" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="N59" s="32" t="s">
+        <v>21</v>
+      </c>
       <c r="T59" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" s="2">
         <v>43</v>
@@ -9858,24 +9933,40 @@
         <v>0.95833333333229298</v>
       </c>
     </row>
-    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="13">
         <v>45</v>
       </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
+      <c r="D60" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="34">
+        <v>11</v>
+      </c>
+      <c r="I60" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="34">
+        <v>2</v>
+      </c>
+      <c r="K60" s="34">
+        <v>1</v>
+      </c>
+      <c r="L60" s="35">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="M60" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="N60" s="34" t="s">
+        <v>21</v>
+      </c>
       <c r="T60" s="1" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U60" s="2">
         <v>44</v>
@@ -9887,16 +9978,16 @@
         <v>0.99999999999870004</v>
       </c>
     </row>
-    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
         <v>46</v>
       </c>
-      <c r="D61" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="D61" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
         <v>17</v>
@@ -9930,16 +10021,16 @@
         <v>1.04166666666511</v>
       </c>
     </row>
-    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="13">
         <v>47</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
+      <c r="D62" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
         <v>17</v>
@@ -9973,16 +10064,16 @@
         <v>1.0833333333315101</v>
       </c>
     </row>
-    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
         <v>48</v>
       </c>
-      <c r="D63" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="D63" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32" t="s">
         <v>17</v>
@@ -10016,14 +10107,14 @@
         <v>1.1249999999979201</v>
       </c>
     </row>
-    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="13">
         <v>49</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -10045,14 +10136,14 @@
         <v>1.1666666666643299</v>
       </c>
     </row>
-    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C65" s="14">
         <v>50</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
@@ -10074,7 +10165,7 @@
         <v>1.20833333333073</v>
       </c>
     </row>
-    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -10089,7 +10180,7 @@
         <v>1.2499999999971401</v>
       </c>
     </row>
-    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -10102,10 +10193,10 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
@@ -10113,7 +10204,7 @@
       <c r="K68" s="2"/>
       <c r="L68" s="9">
         <f>SUM(L16:L65)</f>
-        <v>6.3854166666628061</v>
+        <v>8.0520833333295023</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -10124,7 +10215,7 @@
         <v>1.2916666666635499</v>
       </c>
     </row>
-    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -10139,7 +10230,7 @@
         <v>1.33333333332996</v>
       </c>
     </row>
-    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -10154,7 +10245,7 @@
         <v>1.37499999999636</v>
       </c>
     </row>
-    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -10169,7 +10260,7 @@
         <v>1.4166666666627701</v>
       </c>
     </row>
-    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -10184,7 +10275,7 @@
         <v>1.4583333333291799</v>
       </c>
     </row>
-    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -10199,7 +10290,7 @@
         <v>1.49999999999558</v>
       </c>
     </row>
-    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -10214,7 +10305,7 @@
         <v>1.54166666666199</v>
       </c>
     </row>
-    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -10229,7 +10320,7 @@
         <v>1.5833333333284001</v>
       </c>
     </row>
-    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -10244,7 +10335,7 @@
         <v>1.6249999999948099</v>
       </c>
     </row>
-    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -10259,7 +10350,7 @@
         <v>1.66666666666121</v>
       </c>
     </row>
-    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -10274,7 +10365,7 @@
         <v>1.7083333333276201</v>
       </c>
     </row>
-    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -10289,7 +10380,7 @@
         <v>1.7499999999940301</v>
       </c>
     </row>
-    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -10304,87 +10395,87 @@
         <v>1.79166666666043</v>
       </c>
     </row>
-    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y81" s="9">
         <v>1.83333333332684</v>
       </c>
     </row>
-    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y82" s="9">
         <v>1.8749999999932501</v>
       </c>
     </row>
-    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y83" s="9">
         <v>1.9166666666596599</v>
       </c>
     </row>
-    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y84" s="9">
         <v>1.95833333332606</v>
       </c>
     </row>
-    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y85" s="9">
         <v>1.99999999999247</v>
       </c>
     </row>
-    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y86" s="9">
         <v>2.0416666666588701</v>
       </c>
     </row>
-    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y87" s="9">
         <v>2.0833333333252799</v>
       </c>
     </row>
-    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y88" s="9">
         <v>2.1249999999916902</v>
       </c>
     </row>
-    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y89" s="9">
         <v>2.1666666666580898</v>
       </c>
     </row>
-    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y90" s="9">
         <v>2.2083333333245001</v>
       </c>
     </row>
-    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y91" s="9">
         <v>2.2499999999909099</v>
       </c>
     </row>
-    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y92" s="9">
         <v>2.2916666666573202</v>
       </c>
     </row>
-    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y93" s="9">
         <v>2.3333333333237198</v>
       </c>
     </row>
-    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y94" s="9">
         <v>2.3749999999901301</v>
       </c>
     </row>
-    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y95" s="9">
         <v>2.41666666665654</v>
       </c>
     </row>
-    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y96" s="9">
         <v>2.45833333332294</v>
       </c>
     </row>
-    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y97" s="9">
         <v>2.4999999999893499</v>
       </c>
@@ -10392,6 +10483,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tjqSiT+XspradLJBNpu0viI4TokIDIF0O7QeXm3BTZLmeAfSOw5TlniSFfStQ9LXJLtK7gLyf3B6jINr+qJ+Cg==" saltValue="/wSmyHkNAfBsPbW8NILu1w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="54">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D65:G65"/>
@@ -10408,44 +10537,6 @@
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -10562,25 +10653,25 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+    <row r="1" spans="2:13" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="2:13" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
         <v>13</v>
@@ -10598,7 +10689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>31</v>
       </c>
@@ -10608,22 +10699,22 @@
       </c>
       <c r="D5" s="8">
         <f>COUNTIF(Sprint,D4)</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8">
         <f>COUNTIF(Sprint,E4)</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F5" s="8">
         <f>COUNTIF(Sprint,F4)</f>
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G5" s="25">
         <f>SUM(C5:F5)</f>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
@@ -10633,22 +10724,22 @@
       </c>
       <c r="D6" s="10">
         <f>SUMIFS(Duree, Sprint,D4)</f>
-        <v>1.8333333333333313</v>
+        <v>1.8854166666666743</v>
       </c>
       <c r="E6" s="10">
         <f>SUMIFS(Duree, Sprint,E4)</f>
-        <v>1.7187500000000153</v>
+        <v>1.8750000000000202</v>
       </c>
       <c r="F6" s="10">
         <f>SUMIFS(Duree, Sprint,F4)</f>
-        <v>0.96875000000000144</v>
+        <v>2.4270833333333486</v>
       </c>
       <c r="G6" s="26">
         <f>SUM(C6:F6)</f>
-        <v>6.3854166666628078</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.0520833333295023</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="49" t="s">
         <v>51</v>
       </c>
@@ -10664,7 +10755,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="2:13" ht="10.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:13" ht="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7jx2YjRECZ6o8Bp/12l6CT33ZUxVZFIE8DruIq28qeqGO2CO/14nabG1jCRVqb35hCSmvSIufKDGdWZOjYPEuQ==" saltValue="Nt1swAwRwjrWuMUX30XPfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="2">
@@ -10684,14 +10775,14 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="49" t="s">
         <v>37</v>
       </c>
@@ -10712,150 +10803,150 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C4" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D5" s="24" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D6" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D13" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D14" s="24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D15" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D16" s="24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D17" s="24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D18" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="E29" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="E30" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="E31" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Dzyfz6Pvoe1+wPoVjXKJsRTFywgjIP8eSEZi7eXOnUCA2h3K3cNX0zQIho1YSjNBBIX99v4/FYUmXsSWPOGxxw==" saltValue="B5CvoY9Z3hcMlbc34txcfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\---- GREEEN FLAG ----------\GreenFlag\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GENES\Documents\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D25D10-8AA2-4B52-9FD9-1ABC9FD36061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E65AA2-0D5C-4ABF-A7FC-0BAE98A3F133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -412,9 +412,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Remplacer ce texte par le nom de votre projet</t>
-  </si>
-  <si>
     <t>Resp.</t>
   </si>
   <si>
@@ -866,6 +863,9 @@
   </si>
   <si>
     <t xml:space="preserve">trigger &amp; fonction pour tableau suggestion dans la base de données </t>
+  </si>
+  <si>
+    <t>GreenFlag</t>
   </si>
 </sst>
 </file>
@@ -1245,11 +1245,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1265,13 +1272,6 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1433,7 +1433,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1855,7 +1855,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2602,7 +2602,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3055,7 +3055,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3508,7 +3508,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
+  <c:lang val="fr-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7520,85 +7520,85 @@
   <dimension ref="B1:AF97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+      <selection activeCell="C2" sqref="C2:N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
     <col min="4" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.54296875" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.54296875" style="2" customWidth="1"/>
-    <col min="15" max="18" width="9.26953125" style="1"/>
+    <col min="6" max="7" width="11.5703125" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.5703125" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.28515625" style="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="9.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="27" width="9.26953125" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="9.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.26953125" style="1"/>
+    <col min="20" max="21" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="27" width="9.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:31" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:31" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:31" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="17"/>
-      <c r="C2" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-    </row>
-    <row r="3" spans="2:31" ht="12.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+    </row>
+    <row r="3" spans="2:31" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18"/>
-      <c r="C5" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-    </row>
-    <row r="6" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+    </row>
+    <row r="6" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
         <v>2</v>
@@ -7607,28 +7607,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="15"/>
-      <c r="J7" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+      <c r="J7" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
       <c r="N7" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>IF(C8&lt;=$N$7,UPPER(LEFT(D8)) &amp; UPPER(LEFT(E8)),"")</f>
@@ -7636,15 +7636,15 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="29" t="s">
         <v>71</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>72</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" ref="F9:F11" si="0">IF(C9&lt;=$N$7,UPPER(LEFT(D9)) &amp; UPPER(LEFT(E9)),"")</f>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C10" s="8">
         <v>3</v>
       </c>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C11" s="7">
         <v>4</v>
       </c>
@@ -7675,23 +7675,23 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
       <c r="U13" s="2">
         <f>D68</f>
         <v>48</v>
@@ -7701,22 +7701,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="47" t="s">
+      <c r="D15" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>5</v>
@@ -7725,22 +7725,22 @@
         <v>6</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>5</v>
@@ -7755,22 +7755,22 @@
         <v>8</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="D16" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="30">
         <v>1</v>
@@ -7782,10 +7782,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T16" s="1" t="b">
         <f t="shared" ref="T16:T47" si="1">ISBLANK(D16)</f>
@@ -7796,27 +7796,27 @@
         <v>8</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="D17" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="32">
         <v>1</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="32">
         <v>2</v>
@@ -7828,10 +7828,10 @@
         <v>0.37500000000002298</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T17" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7841,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="W17" s="2">
         <v>1</v>
@@ -7853,10 +7853,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f>Z17</f>
@@ -7871,21 +7871,21 @@
         <v>1.8645833333294597</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="34">
         <v>2</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="34">
         <v>3</v>
@@ -7897,10 +7897,10 @@
         <v>1.4166666666627701</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T18" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7910,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W18" s="2">
         <v>2</v>
@@ -7922,7 +7922,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA18" s="2" t="str">
         <f>F8</f>
@@ -7944,21 +7944,21 @@
         <v>1.8854166666666743</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
+      <c r="D19" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="32">
         <v>3</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="32">
         <v>1</v>
@@ -7970,10 +7970,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T19" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7983,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="W19" s="2">
         <v>3</v>
@@ -7995,7 +7995,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA19" s="2" t="str">
         <f>F9</f>
@@ -8017,19 +8017,19 @@
         <v>1.8750000000000202</v>
       </c>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="13">
         <v>5</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
+      <c r="D20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="34">
         <v>1</v>
@@ -8041,10 +8041,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T20" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8057,7 +8057,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA20" s="2" t="str">
         <f>F10</f>
@@ -8076,21 +8076,21 @@
         <v>2.4270833333333486</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
+      <c r="D21" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="32">
         <v>5</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="32">
         <v>2</v>
@@ -8102,10 +8102,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T21" s="1" t="b">
         <f>ISBLANK(#REF!)</f>
@@ -8122,21 +8122,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
+      <c r="D22" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="34">
         <v>5</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="34">
         <v>1</v>
@@ -8148,10 +8148,10 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T22" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8164,12 +8164,12 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="12">
         <v>8</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -8178,7 +8178,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J23" s="32">
         <v>1</v>
@@ -8190,10 +8190,10 @@
         <v>5.2083333333333398E-2</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T23" s="1" t="b">
         <f>ISBLANK(D21)</f>
@@ -8206,28 +8206,28 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="AC23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD23" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="AE23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
+      <c r="D24" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" s="34">
         <v>1</v>
@@ -8239,10 +8239,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T24" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8267,21 +8267,21 @@
         <v>4.7083333333294766</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
+      <c r="D25" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="32">
         <v>5</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J25" s="32">
         <v>3</v>
@@ -8293,10 +8293,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T25" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8321,21 +8321,21 @@
         <v>1.3645833333333353</v>
       </c>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="13">
         <v>11</v>
       </c>
-      <c r="D26" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
+      <c r="D26" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="34">
         <v>10</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" s="34">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T26" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8375,21 +8375,21 @@
         <v>1.9791666666666921</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="12">
         <v>12</v>
       </c>
-      <c r="D27" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
+      <c r="D27" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="32">
         <v>11</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J27" s="32">
         <v>3</v>
@@ -8401,10 +8401,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T27" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8429,21 +8429,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="13">
         <v>13</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
+      <c r="D28" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
       <c r="H28" s="34">
         <v>8</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J28" s="34">
         <v>3</v>
@@ -8455,10 +8455,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>ISBLANK(D28)</f>
@@ -8483,21 +8483,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="12">
         <v>14</v>
       </c>
-      <c r="D29" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
+      <c r="D29" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="32">
         <v>5</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" s="32">
         <v>2</v>
@@ -8509,10 +8509,10 @@
         <v>0.125</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T29" s="1" t="b">
         <f>ISBLANK(D29)</f>
@@ -8525,21 +8525,21 @@
         <v>0.13541666666666699</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="13">
         <v>15</v>
       </c>
-      <c r="D30" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
+      <c r="D30" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
       <c r="H30" s="34">
         <v>5</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J30" s="34">
         <v>3</v>
@@ -8551,10 +8551,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T30" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8567,27 +8567,27 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="D31" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="32">
         <v>8</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>0.29166666666667701</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T31" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8615,7 +8615,7 @@
         <v>0.15625</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AD31" s="1">
         <f>COUNTIF(Categorie,AC31)</f>
@@ -8626,21 +8626,21 @@
         <v>7.2291666666628389</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="13">
         <v>17</v>
       </c>
-      <c r="D32" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
+      <c r="D32" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
       <c r="H32" s="34">
         <v>8</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J32" s="34">
         <v>1</v>
@@ -8652,10 +8652,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T32" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8668,7 +8668,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD32" s="1">
         <f>COUNTIF(Categorie,AC32)</f>
@@ -8679,21 +8679,21 @@
         <v>0.624999999999997</v>
       </c>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C33" s="12">
         <v>18</v>
       </c>
-      <c r="D33" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
+      <c r="D33" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="32">
         <v>13</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J33" s="32">
         <v>2</v>
@@ -8705,10 +8705,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T33" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8721,7 +8721,7 @@
         <v>0.17708333333333201</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD33" s="1">
         <f>COUNTIF(Categorie,AC33)</f>
@@ -8732,21 +8732,21 @@
         <v>0.19791666666666669</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C34" s="13">
         <v>19</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
+      <c r="D34" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
       <c r="H34" s="34">
         <v>14</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" s="34">
         <v>3</v>
@@ -8758,10 +8758,10 @@
         <v>0.250000000000003</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T34" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8774,21 +8774,21 @@
         <v>0.187499999999998</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C35" s="12">
         <v>20</v>
       </c>
-      <c r="D35" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="D35" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="32">
         <v>14</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" s="32">
         <v>3</v>
@@ -8800,10 +8800,10 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T35" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8816,27 +8816,27 @@
         <v>0.19791666666666399</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C36" s="13">
         <v>21</v>
       </c>
-      <c r="D36" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
+      <c r="D36" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
       <c r="H36" s="34">
         <v>12</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" s="34">
         <v>2</v>
@@ -8848,10 +8848,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T36" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8864,7 +8864,7 @@
         <v>0.20833333333333001</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD36" s="1">
         <f>COUNTIF(Difficulte,W17)</f>
@@ -8875,21 +8875,21 @@
         <v>1.5520833333333355</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C37" s="12">
         <v>22</v>
       </c>
-      <c r="D37" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
+      <c r="D37" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
       <c r="H37" s="32">
         <v>12</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" s="32">
         <v>2</v>
@@ -8901,10 +8901,10 @@
         <v>0.125</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T37" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8917,7 +8917,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AD37" s="1">
         <f>COUNTIF(Difficulte,W18)</f>
@@ -8928,21 +8928,21 @@
         <v>2.7291666666666843</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C38" s="13">
         <v>23</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
+      <c r="D38" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
       <c r="H38" s="34">
         <v>7</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" s="34">
         <v>2</v>
@@ -8954,10 +8954,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T38" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8970,7 +8970,7 @@
         <v>0.250000000000003</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AD38" s="1">
         <f>COUNTIF(Difficulte,W19)</f>
@@ -8981,21 +8981,21 @@
         <v>3.7708333333294841</v>
       </c>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C39" s="12">
         <v>24</v>
       </c>
-      <c r="D39" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
+      <c r="D39" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
       <c r="H39" s="32">
         <v>12</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J39" s="32">
         <v>1</v>
@@ -9007,10 +9007,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T39" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9023,21 +9023,21 @@
         <v>0.27083333333333998</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C40" s="13">
         <v>25</v>
       </c>
-      <c r="D40" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
+      <c r="D40" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="34">
         <v>10</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" s="34">
         <v>2</v>
@@ -9049,10 +9049,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T40" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9065,27 +9065,27 @@
         <v>0.29166666666667701</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C41" s="12">
         <v>26</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
+      <c r="D41" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="32">
         <v>9</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="32">
         <v>3</v>
@@ -9097,10 +9097,10 @@
         <v>0.250000000000003</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T41" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9113,7 +9113,7 @@
         <v>0.31250000000001299</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AD41" s="1">
         <f>COUNTIF(Incertitude,X17)</f>
@@ -9124,21 +9124,21 @@
         <v>2.8645833333333544</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C42" s="13">
         <v>27</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
+      <c r="D42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="34">
         <v>15</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" s="34">
         <v>2</v>
@@ -9150,10 +9150,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T42" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9166,7 +9166,7 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AD42" s="1">
         <f>COUNTIF(Incertitude,X18)</f>
@@ -9177,21 +9177,21 @@
         <v>2.9583333333294384</v>
       </c>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C43" s="12">
         <v>28</v>
       </c>
-      <c r="D43" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
+      <c r="D43" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
       <c r="H43" s="32">
         <v>10</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="32">
         <v>2</v>
@@ -9203,10 +9203,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T43" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9219,7 +9219,7 @@
         <v>0.354166666666687</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD43" s="1">
         <f>COUNTIF(Incertitude,X19)</f>
@@ -9230,21 +9230,21 @@
         <v>2.2291666666667105</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
+      <c r="D44" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="34">
         <v>15</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" s="34">
         <v>2</v>
@@ -9256,10 +9256,10 @@
         <v>0.187499999999998</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T44" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9272,21 +9272,21 @@
         <v>0.37500000000002298</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
+      <c r="D45" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
       <c r="H45" s="32">
         <v>24</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" s="32">
         <v>3</v>
@@ -9298,10 +9298,10 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T45" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9314,21 +9314,21 @@
         <v>0.39583333333336002</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C46" s="13">
         <v>31</v>
       </c>
-      <c r="D46" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
+      <c r="D46" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="34">
         <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J46" s="34">
         <v>1</v>
@@ -9340,10 +9340,10 @@
         <v>0.125</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>ISBLANK(D46)</f>
@@ -9356,12 +9356,12 @@
         <v>0.416666666666696</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C47" s="12">
         <v>32</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -9370,7 +9370,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J47" s="32">
         <v>1</v>
@@ -9382,10 +9382,10 @@
         <v>0.13541666666666699</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T47" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9398,21 +9398,21 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C48" s="13">
         <v>33</v>
       </c>
-      <c r="D48" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
+      <c r="D48" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="34">
         <v>21</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J48" s="34">
         <v>1</v>
@@ -9424,10 +9424,10 @@
         <v>0.125</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T48" s="1" t="b">
         <f t="shared" ref="T48:T65" si="4">ISBLANK(D48)</f>
@@ -9440,21 +9440,21 @@
         <v>0.49999999999997102</v>
       </c>
     </row>
-    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C49" s="12">
         <v>34</v>
       </c>
-      <c r="D49" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
+      <c r="D49" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
       <c r="H49" s="32">
         <v>12</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J49" s="32">
         <v>1</v>
@@ -9466,10 +9466,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T49" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9485,21 +9485,21 @@
         <v>0.54166666666660801</v>
       </c>
     </row>
-    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C50" s="13">
         <v>35</v>
       </c>
-      <c r="D50" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
+      <c r="D50" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="34">
         <v>21</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J50" s="34">
         <v>2</v>
@@ -9511,10 +9511,10 @@
         <v>0.125</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T50" s="1" t="b">
         <f>ISBLANK(D50)</f>
@@ -9530,21 +9530,21 @@
         <v>0.583333333333245</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C51" s="12">
         <v>36</v>
       </c>
-      <c r="D51" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
+      <c r="D51" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
       <c r="H51" s="32">
         <v>23</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" s="32">
         <v>2</v>
@@ -9556,10 +9556,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T51" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9575,21 +9575,21 @@
         <v>0.62499999999988298</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C52" s="13">
         <v>37</v>
       </c>
-      <c r="D52" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
+      <c r="D52" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
       <c r="H52" s="34">
         <v>19</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J52" s="34">
         <v>1</v>
@@ -9601,10 +9601,10 @@
         <v>0.125</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T52" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9620,21 +9620,21 @@
         <v>0.66666666666652097</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C53" s="12">
         <v>38</v>
       </c>
-      <c r="D53" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
+      <c r="D53" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
       <c r="H53" s="32">
         <v>13</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J53" s="32">
         <v>2</v>
@@ -9646,10 +9646,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T53" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9665,21 +9665,21 @@
         <v>0.70833333333315895</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C54" s="13">
         <v>39</v>
       </c>
-      <c r="D54" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
+      <c r="D54" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
       <c r="H54" s="34">
         <v>10</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J54" s="34">
         <v>2</v>
@@ -9691,10 +9691,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M54" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="T54" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9710,21 +9710,21 @@
         <v>0.74999999999979705</v>
       </c>
     </row>
-    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
+      <c r="D55" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
       <c r="H55" s="32">
         <v>26</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" s="32">
         <v>1</v>
@@ -9736,10 +9736,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9755,21 +9755,21 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C56" s="13">
         <v>41</v>
       </c>
-      <c r="D56" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
+      <c r="D56" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
       <c r="H56" s="34">
         <v>16</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J56" s="34">
         <v>2</v>
@@ -9781,10 +9781,10 @@
         <v>0.20833333333333001</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T56" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9800,21 +9800,21 @@
         <v>0.83333333333307302</v>
       </c>
     </row>
-    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C57" s="12">
         <v>42</v>
       </c>
-      <c r="D57" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
+      <c r="D57" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
       <c r="H57" s="32">
         <v>35</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J57" s="32">
         <v>1</v>
@@ -9826,10 +9826,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N57" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T57" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9845,21 +9845,21 @@
         <v>0.87499999999947897</v>
       </c>
     </row>
-    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C58" s="13">
         <v>43</v>
       </c>
-      <c r="D58" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
+      <c r="D58" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
       <c r="H58" s="34">
         <v>13</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J58" s="34">
         <v>2</v>
@@ -9871,10 +9871,10 @@
         <v>0.125</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N58" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T58" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9890,19 +9890,19 @@
         <v>0.91666666666588603</v>
       </c>
     </row>
-    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C59" s="12">
         <v>44</v>
       </c>
-      <c r="D59" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
+      <c r="D59" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J59" s="32">
         <v>1</v>
@@ -9914,10 +9914,10 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T59" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9933,21 +9933,21 @@
         <v>0.95833333333229298</v>
       </c>
     </row>
-    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C60" s="13">
         <v>45</v>
       </c>
-      <c r="D60" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E60" s="41"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="41"/>
+      <c r="D60" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
       <c r="H60" s="34">
         <v>11</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J60" s="34">
         <v>2</v>
@@ -9959,10 +9959,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T60" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9978,19 +9978,19 @@
         <v>0.99999999999870004</v>
       </c>
     </row>
-    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C61" s="12">
         <v>46</v>
       </c>
-      <c r="D61" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
+      <c r="D61" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" s="32">
         <v>1</v>
@@ -10002,10 +10002,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T61" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10021,19 +10021,19 @@
         <v>1.04166666666511</v>
       </c>
     </row>
-    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C62" s="13">
         <v>47</v>
       </c>
-      <c r="D62" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
+      <c r="D62" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" s="34">
         <v>1</v>
@@ -10045,10 +10045,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T62" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10064,19 +10064,19 @@
         <v>1.0833333333315101</v>
       </c>
     </row>
-    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C63" s="12">
         <v>48</v>
       </c>
-      <c r="D63" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
+      <c r="D63" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" s="32">
         <v>1</v>
@@ -10088,10 +10088,10 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T63" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10107,14 +10107,14 @@
         <v>1.1249999999979201</v>
       </c>
     </row>
-    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C64" s="13">
         <v>49</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -10136,14 +10136,14 @@
         <v>1.1666666666643299</v>
       </c>
     </row>
-    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C65" s="14">
         <v>50</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
@@ -10165,7 +10165,7 @@
         <v>1.20833333333073</v>
       </c>
     </row>
-    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -10180,7 +10180,7 @@
         <v>1.2499999999971401</v>
       </c>
     </row>
-    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -10193,7 +10193,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
         <v>48</v>
@@ -10215,7 +10215,7 @@
         <v>1.2916666666635499</v>
       </c>
     </row>
-    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -10230,7 +10230,7 @@
         <v>1.33333333332996</v>
       </c>
     </row>
-    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -10245,7 +10245,7 @@
         <v>1.37499999999636</v>
       </c>
     </row>
-    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -10260,7 +10260,7 @@
         <v>1.4166666666627701</v>
       </c>
     </row>
-    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -10275,7 +10275,7 @@
         <v>1.4583333333291799</v>
       </c>
     </row>
-    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -10290,7 +10290,7 @@
         <v>1.49999999999558</v>
       </c>
     </row>
-    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -10305,7 +10305,7 @@
         <v>1.54166666666199</v>
       </c>
     </row>
-    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -10320,7 +10320,7 @@
         <v>1.5833333333284001</v>
       </c>
     </row>
-    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -10335,7 +10335,7 @@
         <v>1.6249999999948099</v>
       </c>
     </row>
-    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -10350,7 +10350,7 @@
         <v>1.66666666666121</v>
       </c>
     </row>
-    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -10365,7 +10365,7 @@
         <v>1.7083333333276201</v>
       </c>
     </row>
-    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -10380,7 +10380,7 @@
         <v>1.7499999999940301</v>
       </c>
     </row>
-    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -10395,87 +10395,87 @@
         <v>1.79166666666043</v>
       </c>
     </row>
-    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y81" s="9">
         <v>1.83333333332684</v>
       </c>
     </row>
-    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y82" s="9">
         <v>1.8749999999932501</v>
       </c>
     </row>
-    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y83" s="9">
         <v>1.9166666666596599</v>
       </c>
     </row>
-    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y84" s="9">
         <v>1.95833333332606</v>
       </c>
     </row>
-    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y85" s="9">
         <v>1.99999999999247</v>
       </c>
     </row>
-    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y86" s="9">
         <v>2.0416666666588701</v>
       </c>
     </row>
-    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y87" s="9">
         <v>2.0833333333252799</v>
       </c>
     </row>
-    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y88" s="9">
         <v>2.1249999999916902</v>
       </c>
     </row>
-    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y89" s="9">
         <v>2.1666666666580898</v>
       </c>
     </row>
-    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y90" s="9">
         <v>2.2083333333245001</v>
       </c>
     </row>
-    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y91" s="9">
         <v>2.2499999999909099</v>
       </c>
     </row>
-    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y92" s="9">
         <v>2.2916666666573202</v>
       </c>
     </row>
-    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y93" s="9">
         <v>2.3333333333237198</v>
       </c>
     </row>
-    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y94" s="9">
         <v>2.3749999999901301</v>
       </c>
     </row>
-    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y95" s="9">
         <v>2.41666666665654</v>
       </c>
     </row>
-    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y96" s="9">
         <v>2.45833333332294</v>
       </c>
     </row>
-    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="Y97" s="9">
         <v>2.4999999999893499</v>
       </c>
@@ -10483,44 +10483,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tjqSiT+XspradLJBNpu0viI4TokIDIF0O7QeXm3BTZLmeAfSOw5TlniSFfStQ9LXJLtK7gLyf3B6jINr+qJ+Cg==" saltValue="/wSmyHkNAfBsPbW8NILu1w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="54">
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D65:G65"/>
@@ -10537,6 +10499,44 @@
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -10653,45 +10653,45 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-    </row>
-    <row r="3" spans="2:13" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="F4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="22" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(Sprint,C4)</f>
@@ -10714,9 +10714,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="10">
         <f>SUMIFS(Duree, Sprint,C4)</f>
@@ -10739,9 +10739,9 @@
         <v>8.0520833333295023</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -10755,7 +10755,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="2:13" ht="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="2:13" ht="10.7" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7jx2YjRECZ6o8Bp/12l6CT33ZUxVZFIE8DruIq28qeqGO2CO/14nabG1jCRVqb35hCSmvSIufKDGdWZOjYPEuQ==" saltValue="Nt1swAwRwjrWuMUX30XPfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="2">
@@ -10775,16 +10775,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="2.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="4" width="2.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -10803,150 +10803,150 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="C4" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D5" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D6" s="24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D7" s="24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="24" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D5" s="24" t="s">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D6" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="D7" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="24" t="s">
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D13" s="24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="24" t="s">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D14" s="24" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="27" t="s">
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D15" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D16" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D17" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D18" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C22" s="23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D13" s="24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D14" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D15" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D16" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D17" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D18" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="C22" s="23" t="s">
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D25" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E29" s="24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E30" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="E31" s="24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D28" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="E29" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="E30" s="24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="E31" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
-      <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Dzyfz6Pvoe1+wPoVjXKJsRTFywgjIP8eSEZi7eXOnUCA2h3K3cNX0zQIho1YSjNBBIX99v4/FYUmXsSWPOGxxw==" saltValue="B5CvoY9Z3hcMlbc34txcfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">

--- a/docs/C61 - Sprint1c - Outil de planification.xlsx
+++ b/docs/C61 - Sprint1c - Outil de planification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GENES\Documents\GreenFlag\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\---- GREEEN FLAG ----------\GreenFlag\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E65AA2-0D5C-4ABF-A7FC-0BAE98A3F133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D25D10-8AA2-4B52-9FD9-1ABC9FD36061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="1" r:id="rId1"/>
@@ -412,6 +412,9 @@
     <t>Sprint</t>
   </si>
   <si>
+    <t>Remplacer ce texte par le nom de votre projet</t>
+  </si>
+  <si>
     <t>Resp.</t>
   </si>
   <si>
@@ -863,9 +866,6 @@
   </si>
   <si>
     <t xml:space="preserve">trigger &amp; fonction pour tableau suggestion dans la base de données </t>
-  </si>
-  <si>
-    <t>GreenFlag</t>
   </si>
 </sst>
 </file>
@@ -1245,18 +1245,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1272,6 +1265,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1433,7 +1433,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1855,7 +1855,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2602,7 +2602,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3055,7 +3055,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3508,7 +3508,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="fr-CA"/>
+  <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7520,85 +7520,85 @@
   <dimension ref="B1:AF97"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:N2"/>
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.26953125" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="0.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="0.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7265625" style="1" customWidth="1"/>
     <col min="4" max="5" width="19" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="14" width="8.5703125" style="2" customWidth="1"/>
-    <col min="15" max="18" width="9.28515625" style="1"/>
+    <col min="6" max="7" width="11.54296875" style="1" customWidth="1"/>
+    <col min="8" max="14" width="8.54296875" style="2" customWidth="1"/>
+    <col min="15" max="18" width="9.26953125" style="1"/>
     <col min="19" max="19" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="21" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="22" max="27" width="9.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="28" max="32" width="9.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.28515625" style="1"/>
+    <col min="20" max="21" width="9.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="27" width="9.26953125" style="2" hidden="1" customWidth="1"/>
+    <col min="28" max="32" width="9.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.26953125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:31" ht="25.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:31" ht="25.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="17"/>
-      <c r="C2" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-    </row>
-    <row r="3" spans="2:31" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+    </row>
+    <row r="3" spans="2:31" ht="12.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+    </row>
+    <row r="4" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="18"/>
-      <c r="C5" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-    </row>
-    <row r="6" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+    </row>
+    <row r="6" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="5"/>
       <c r="D7" s="16" t="s">
         <v>2</v>
@@ -7607,28 +7607,28 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" s="8" t="str">
         <f>IF(C8&lt;=$N$7,UPPER(LEFT(D8)) &amp; UPPER(LEFT(E8)),"")</f>
@@ -7636,15 +7636,15 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="str">
         <f t="shared" ref="F9:F11" si="0">IF(C9&lt;=$N$7,UPPER(LEFT(D9)) &amp; UPPER(LEFT(E9)),"")</f>
@@ -7652,7 +7652,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C10" s="8">
         <v>3</v>
       </c>
@@ -7664,7 +7664,7 @@
       </c>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
         <v>4</v>
       </c>
@@ -7675,23 +7675,23 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:31" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:31" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:31" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="18"/>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
       <c r="U13" s="2">
         <f>D68</f>
         <v>48</v>
@@ -7701,22 +7701,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:31" ht="6.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" ht="6.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:31" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>5</v>
@@ -7725,22 +7725,22 @@
         <v>6</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>5</v>
@@ -7755,22 +7755,22 @@
         <v>8</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:31" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="11">
         <v>1</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="D16" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="30"/>
       <c r="I16" s="30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" s="30">
         <v>1</v>
@@ -7782,10 +7782,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="M16" s="30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T16" s="1" t="b">
         <f t="shared" ref="T16:T47" si="1">ISBLANK(D16)</f>
@@ -7796,27 +7796,27 @@
         <v>8</v>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE16" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C17" s="12">
         <v>2</v>
       </c>
-      <c r="D17" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="D17" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="32">
         <v>1</v>
       </c>
       <c r="I17" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J17" s="32">
         <v>2</v>
@@ -7828,10 +7828,10 @@
         <v>0.37500000000002298</v>
       </c>
       <c r="M17" s="32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N17" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T17" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7841,7 +7841,7 @@
         <v>1</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="W17" s="2">
         <v>1</v>
@@ -7853,10 +7853,10 @@
         <v>1.0416666666666666E-2</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC17" s="1" t="str">
         <f>Z17</f>
@@ -7871,21 +7871,21 @@
         <v>1.8645833333294597</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C18" s="13">
         <v>3</v>
       </c>
-      <c r="D18" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
       <c r="H18" s="34">
         <v>2</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" s="34">
         <v>3</v>
@@ -7897,10 +7897,10 @@
         <v>1.4166666666627701</v>
       </c>
       <c r="M18" s="34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N18" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T18" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7910,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W18" s="2">
         <v>2</v>
@@ -7922,7 +7922,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA18" s="2" t="str">
         <f>F8</f>
@@ -7944,21 +7944,21 @@
         <v>1.8854166666666743</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C19" s="12">
         <v>4</v>
       </c>
-      <c r="D19" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="D19" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="32">
         <v>3</v>
       </c>
       <c r="I19" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J19" s="32">
         <v>1</v>
@@ -7970,10 +7970,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M19" s="32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N19" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T19" s="1" t="b">
         <f t="shared" si="1"/>
@@ -7983,7 +7983,7 @@
         <v>3</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="W19" s="2">
         <v>3</v>
@@ -7995,7 +7995,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA19" s="2" t="str">
         <f>F9</f>
@@ -8017,19 +8017,19 @@
         <v>1.8750000000000202</v>
       </c>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C20" s="13">
         <v>5</v>
       </c>
-      <c r="D20" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J20" s="34">
         <v>1</v>
@@ -8041,10 +8041,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M20" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N20" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T20" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8057,7 +8057,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA20" s="2" t="str">
         <f>F10</f>
@@ -8076,21 +8076,21 @@
         <v>2.4270833333333486</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C21" s="12">
         <v>6</v>
       </c>
-      <c r="D21" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
+      <c r="D21" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="32">
         <v>5</v>
       </c>
       <c r="I21" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J21" s="32">
         <v>2</v>
@@ -8102,10 +8102,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M21" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N21" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T21" s="1" t="b">
         <f>ISBLANK(#REF!)</f>
@@ -8122,21 +8122,21 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C22" s="13">
         <v>7</v>
       </c>
-      <c r="D22" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="34">
         <v>5</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" s="34">
         <v>1</v>
@@ -8148,10 +8148,10 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N22" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T22" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8164,12 +8164,12 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C23" s="12">
         <v>8</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E23" s="39"/>
       <c r="F23" s="39"/>
@@ -8178,7 +8178,7 @@
         <v>5</v>
       </c>
       <c r="I23" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J23" s="32">
         <v>1</v>
@@ -8190,10 +8190,10 @@
         <v>5.2083333333333398E-2</v>
       </c>
       <c r="M23" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N23" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T23" s="1" t="b">
         <f>ISBLANK(D21)</f>
@@ -8206,28 +8206,28 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="AC23" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE23" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C24" s="13">
         <v>9</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
+      <c r="D24" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" s="34">
         <v>1</v>
@@ -8239,10 +8239,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="M24" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N24" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T24" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8267,21 +8267,21 @@
         <v>4.7083333333294766</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C25" s="12">
         <v>10</v>
       </c>
-      <c r="D25" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="D25" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="32">
         <v>5</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J25" s="32">
         <v>3</v>
@@ -8293,10 +8293,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M25" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N25" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T25" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8321,21 +8321,21 @@
         <v>1.3645833333333353</v>
       </c>
     </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C26" s="13">
         <v>11</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
+      <c r="D26" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
       <c r="H26" s="34">
         <v>10</v>
       </c>
       <c r="I26" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" s="34">
         <v>3</v>
@@ -8347,10 +8347,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M26" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N26" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T26" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8375,21 +8375,21 @@
         <v>1.9791666666666921</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C27" s="12">
         <v>12</v>
       </c>
-      <c r="D27" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
+      <c r="D27" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
       <c r="H27" s="32">
         <v>11</v>
       </c>
       <c r="I27" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J27" s="32">
         <v>3</v>
@@ -8401,10 +8401,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N27" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T27" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8429,21 +8429,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C28" s="13">
         <v>13</v>
       </c>
-      <c r="D28" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
       <c r="H28" s="34">
         <v>8</v>
       </c>
       <c r="I28" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J28" s="34">
         <v>3</v>
@@ -8455,10 +8455,10 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="M28" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N28" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T28" s="1" t="b">
         <f>ISBLANK(D28)</f>
@@ -8483,21 +8483,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C29" s="12">
         <v>14</v>
       </c>
-      <c r="D29" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
+      <c r="D29" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
       <c r="H29" s="32">
         <v>5</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" s="32">
         <v>2</v>
@@ -8509,10 +8509,10 @@
         <v>0.125</v>
       </c>
       <c r="M29" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N29" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T29" s="1" t="b">
         <f>ISBLANK(D29)</f>
@@ -8525,21 +8525,21 @@
         <v>0.13541666666666699</v>
       </c>
     </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C30" s="13">
         <v>15</v>
       </c>
-      <c r="D30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
+      <c r="D30" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
       <c r="H30" s="34">
         <v>5</v>
       </c>
       <c r="I30" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" s="34">
         <v>3</v>
@@ -8551,10 +8551,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M30" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N30" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T30" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8567,27 +8567,27 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
+      <c r="D31" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
       <c r="H31" s="32">
         <v>8</v>
       </c>
       <c r="I31" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J31" s="32">
         <v>3</v>
@@ -8599,10 +8599,10 @@
         <v>0.29166666666667701</v>
       </c>
       <c r="M31" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N31" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T31" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8615,7 +8615,7 @@
         <v>0.15625</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AD31" s="1">
         <f>COUNTIF(Categorie,AC31)</f>
@@ -8626,21 +8626,21 @@
         <v>7.2291666666628389</v>
       </c>
     </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C32" s="13">
         <v>17</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
+      <c r="D32" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="34">
         <v>8</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J32" s="34">
         <v>1</v>
@@ -8652,10 +8652,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M32" s="34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N32" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T32" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8668,7 +8668,7 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD32" s="1">
         <f>COUNTIF(Categorie,AC32)</f>
@@ -8679,21 +8679,21 @@
         <v>0.624999999999997</v>
       </c>
     </row>
-    <row r="33" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C33" s="12">
         <v>18</v>
       </c>
-      <c r="D33" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
+      <c r="D33" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="32">
         <v>13</v>
       </c>
       <c r="I33" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J33" s="32">
         <v>2</v>
@@ -8705,10 +8705,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T33" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8721,7 +8721,7 @@
         <v>0.17708333333333201</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AD33" s="1">
         <f>COUNTIF(Categorie,AC33)</f>
@@ -8732,21 +8732,21 @@
         <v>0.19791666666666669</v>
       </c>
     </row>
-    <row r="34" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C34" s="13">
         <v>19</v>
       </c>
-      <c r="D34" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
+      <c r="D34" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
       <c r="H34" s="34">
         <v>14</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" s="34">
         <v>3</v>
@@ -8758,10 +8758,10 @@
         <v>0.250000000000003</v>
       </c>
       <c r="M34" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N34" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T34" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8774,21 +8774,21 @@
         <v>0.187499999999998</v>
       </c>
     </row>
-    <row r="35" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C35" s="12">
         <v>20</v>
       </c>
-      <c r="D35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
+      <c r="D35" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="32">
         <v>14</v>
       </c>
       <c r="I35" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" s="32">
         <v>3</v>
@@ -8800,10 +8800,10 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="M35" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N35" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T35" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8816,27 +8816,27 @@
         <v>0.19791666666666399</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="3:31" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C36" s="13">
         <v>21</v>
       </c>
-      <c r="D36" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
+      <c r="D36" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
       <c r="H36" s="34">
         <v>12</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36" s="34">
         <v>2</v>
@@ -8848,10 +8848,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M36" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N36" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T36" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8864,7 +8864,7 @@
         <v>0.20833333333333001</v>
       </c>
       <c r="AC36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AD36" s="1">
         <f>COUNTIF(Difficulte,W17)</f>
@@ -8875,21 +8875,21 @@
         <v>1.5520833333333355</v>
       </c>
     </row>
-    <row r="37" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C37" s="12">
         <v>22</v>
       </c>
-      <c r="D37" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
+      <c r="D37" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
       <c r="H37" s="32">
         <v>12</v>
       </c>
       <c r="I37" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J37" s="32">
         <v>2</v>
@@ -8901,10 +8901,10 @@
         <v>0.125</v>
       </c>
       <c r="M37" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N37" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T37" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8917,7 +8917,7 @@
         <v>0.22916666666666666</v>
       </c>
       <c r="AC37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD37" s="1">
         <f>COUNTIF(Difficulte,W18)</f>
@@ -8928,21 +8928,21 @@
         <v>2.7291666666666843</v>
       </c>
     </row>
-    <row r="38" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C38" s="13">
         <v>23</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
+      <c r="D38" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="34">
         <v>7</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" s="34">
         <v>2</v>
@@ -8954,10 +8954,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M38" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N38" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T38" s="1" t="b">
         <f t="shared" si="1"/>
@@ -8970,7 +8970,7 @@
         <v>0.250000000000003</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AD38" s="1">
         <f>COUNTIF(Difficulte,W19)</f>
@@ -8981,21 +8981,21 @@
         <v>3.7708333333294841</v>
       </c>
     </row>
-    <row r="39" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C39" s="12">
         <v>24</v>
       </c>
-      <c r="D39" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
+      <c r="D39" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="32">
         <v>12</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J39" s="32">
         <v>1</v>
@@ -9007,10 +9007,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M39" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N39" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T39" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9023,21 +9023,21 @@
         <v>0.27083333333333998</v>
       </c>
     </row>
-    <row r="40" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C40" s="13">
         <v>25</v>
       </c>
-      <c r="D40" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
+      <c r="D40" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
       <c r="H40" s="34">
         <v>10</v>
       </c>
       <c r="I40" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40" s="34">
         <v>2</v>
@@ -9049,10 +9049,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M40" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N40" s="34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T40" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9065,27 +9065,27 @@
         <v>0.29166666666667701</v>
       </c>
       <c r="AD40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="3:31" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C41" s="12">
         <v>26</v>
       </c>
-      <c r="D41" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
+      <c r="D41" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="32">
         <v>9</v>
       </c>
       <c r="I41" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J41" s="32">
         <v>3</v>
@@ -9097,10 +9097,10 @@
         <v>0.250000000000003</v>
       </c>
       <c r="M41" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N41" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T41" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9113,7 +9113,7 @@
         <v>0.31250000000001299</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AD41" s="1">
         <f>COUNTIF(Incertitude,X17)</f>
@@ -9124,21 +9124,21 @@
         <v>2.8645833333333544</v>
       </c>
     </row>
-    <row r="42" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C42" s="13">
         <v>27</v>
       </c>
-      <c r="D42" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
+      <c r="D42" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
       <c r="H42" s="34">
         <v>15</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" s="34">
         <v>2</v>
@@ -9150,10 +9150,10 @@
         <v>6.25E-2</v>
       </c>
       <c r="M42" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N42" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T42" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9166,7 +9166,7 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD42" s="1">
         <f>COUNTIF(Incertitude,X18)</f>
@@ -9177,21 +9177,21 @@
         <v>2.9583333333294384</v>
       </c>
     </row>
-    <row r="43" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C43" s="12">
         <v>28</v>
       </c>
-      <c r="D43" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
+      <c r="D43" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="32">
         <v>10</v>
       </c>
       <c r="I43" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J43" s="32">
         <v>2</v>
@@ -9203,10 +9203,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M43" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N43" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T43" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9219,7 +9219,7 @@
         <v>0.354166666666687</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD43" s="1">
         <f>COUNTIF(Incertitude,X19)</f>
@@ -9230,21 +9230,21 @@
         <v>2.2291666666667105</v>
       </c>
     </row>
-    <row r="44" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C44" s="13">
         <v>29</v>
       </c>
-      <c r="D44" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
+      <c r="D44" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
       <c r="H44" s="34">
         <v>15</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" s="34">
         <v>2</v>
@@ -9256,10 +9256,10 @@
         <v>0.187499999999998</v>
       </c>
       <c r="M44" s="34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N44" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T44" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9272,21 +9272,21 @@
         <v>0.37500000000002298</v>
       </c>
     </row>
-    <row r="45" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C45" s="12">
         <v>30</v>
       </c>
-      <c r="D45" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
+      <c r="D45" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="32">
         <v>24</v>
       </c>
       <c r="I45" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" s="32">
         <v>3</v>
@@ -9298,10 +9298,10 @@
         <v>0.33333333333335002</v>
       </c>
       <c r="M45" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N45" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T45" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9314,21 +9314,21 @@
         <v>0.39583333333336002</v>
       </c>
     </row>
-    <row r="46" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C46" s="13">
         <v>31</v>
       </c>
-      <c r="D46" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
+      <c r="D46" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
       <c r="H46" s="34">
         <v>10</v>
       </c>
       <c r="I46" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J46" s="34">
         <v>1</v>
@@ -9340,10 +9340,10 @@
         <v>0.125</v>
       </c>
       <c r="M46" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N46" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T46" s="1" t="b">
         <f>ISBLANK(D46)</f>
@@ -9356,12 +9356,12 @@
         <v>0.416666666666696</v>
       </c>
     </row>
-    <row r="47" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C47" s="12">
         <v>32</v>
       </c>
       <c r="D47" s="29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
@@ -9370,7 +9370,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J47" s="32">
         <v>1</v>
@@ -9382,10 +9382,10 @@
         <v>0.13541666666666699</v>
       </c>
       <c r="M47" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N47" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T47" s="1" t="b">
         <f t="shared" si="1"/>
@@ -9398,21 +9398,21 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="48" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:31" x14ac:dyDescent="0.3">
       <c r="C48" s="13">
         <v>33</v>
       </c>
-      <c r="D48" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
+      <c r="D48" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
       <c r="H48" s="34">
         <v>21</v>
       </c>
       <c r="I48" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J48" s="34">
         <v>1</v>
@@ -9424,10 +9424,10 @@
         <v>0.125</v>
       </c>
       <c r="M48" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N48" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T48" s="1" t="b">
         <f t="shared" ref="T48:T65" si="4">ISBLANK(D48)</f>
@@ -9440,21 +9440,21 @@
         <v>0.49999999999997102</v>
       </c>
     </row>
-    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="12">
         <v>34</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
+      <c r="D49" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
       <c r="H49" s="32">
         <v>12</v>
       </c>
       <c r="I49" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J49" s="32">
         <v>1</v>
@@ -9466,10 +9466,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M49" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N49" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T49" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9485,21 +9485,21 @@
         <v>0.54166666666660801</v>
       </c>
     </row>
-    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="13">
         <v>35</v>
       </c>
-      <c r="D50" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
+      <c r="D50" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
       <c r="H50" s="34">
         <v>21</v>
       </c>
       <c r="I50" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J50" s="34">
         <v>2</v>
@@ -9511,10 +9511,10 @@
         <v>0.125</v>
       </c>
       <c r="M50" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N50" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T50" s="1" t="b">
         <f>ISBLANK(D50)</f>
@@ -9530,21 +9530,21 @@
         <v>0.583333333333245</v>
       </c>
     </row>
-    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
         <v>36</v>
       </c>
-      <c r="D51" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
+      <c r="D51" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
       <c r="H51" s="32">
         <v>23</v>
       </c>
       <c r="I51" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" s="32">
         <v>2</v>
@@ -9556,10 +9556,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M51" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N51" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T51" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9575,21 +9575,21 @@
         <v>0.62499999999988298</v>
       </c>
     </row>
-    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="13">
         <v>37</v>
       </c>
-      <c r="D52" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
+      <c r="D52" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
       <c r="H52" s="34">
         <v>19</v>
       </c>
       <c r="I52" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J52" s="34">
         <v>1</v>
@@ -9601,10 +9601,10 @@
         <v>0.125</v>
       </c>
       <c r="M52" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N52" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T52" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9620,21 +9620,21 @@
         <v>0.66666666666652097</v>
       </c>
     </row>
-    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="12">
         <v>38</v>
       </c>
-      <c r="D53" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
+      <c r="D53" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
       <c r="H53" s="32">
         <v>13</v>
       </c>
       <c r="I53" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J53" s="32">
         <v>2</v>
@@ -9646,10 +9646,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M53" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N53" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T53" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9665,21 +9665,21 @@
         <v>0.70833333333315895</v>
       </c>
     </row>
-    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="13">
         <v>39</v>
       </c>
-      <c r="D54" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
+      <c r="D54" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
       <c r="H54" s="34">
         <v>10</v>
       </c>
       <c r="I54" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J54" s="34">
         <v>2</v>
@@ -9691,10 +9691,10 @@
         <v>0.14583333333333401</v>
       </c>
       <c r="M54" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N54" s="34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T54" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9710,21 +9710,21 @@
         <v>0.74999999999979705</v>
       </c>
     </row>
-    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="12">
         <v>40</v>
       </c>
-      <c r="D55" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
+      <c r="D55" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
       <c r="H55" s="32">
         <v>26</v>
       </c>
       <c r="I55" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J55" s="32">
         <v>1</v>
@@ -9736,10 +9736,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M55" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N55" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T55" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9755,21 +9755,21 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="13">
         <v>41</v>
       </c>
-      <c r="D56" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
+      <c r="D56" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
       <c r="H56" s="34">
         <v>16</v>
       </c>
       <c r="I56" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J56" s="34">
         <v>2</v>
@@ -9781,10 +9781,10 @@
         <v>0.20833333333333001</v>
       </c>
       <c r="M56" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N56" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T56" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9800,21 +9800,21 @@
         <v>0.83333333333307302</v>
       </c>
     </row>
-    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="12">
         <v>42</v>
       </c>
-      <c r="D57" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
+      <c r="D57" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
       <c r="H57" s="32">
         <v>35</v>
       </c>
       <c r="I57" s="32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J57" s="32">
         <v>1</v>
@@ -9826,10 +9826,10 @@
         <v>0.104166666666667</v>
       </c>
       <c r="M57" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N57" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T57" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9845,21 +9845,21 @@
         <v>0.87499999999947897</v>
       </c>
     </row>
-    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="13">
         <v>43</v>
       </c>
-      <c r="D58" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
+      <c r="D58" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
       <c r="H58" s="34">
         <v>13</v>
       </c>
       <c r="I58" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J58" s="34">
         <v>2</v>
@@ -9871,10 +9871,10 @@
         <v>0.125</v>
       </c>
       <c r="M58" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N58" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T58" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9890,19 +9890,19 @@
         <v>0.91666666666588603</v>
       </c>
     </row>
-    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="12">
         <v>44</v>
       </c>
-      <c r="D59" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
+      <c r="D59" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J59" s="32">
         <v>1</v>
@@ -9914,10 +9914,10 @@
         <v>7.2916666666666699E-2</v>
       </c>
       <c r="M59" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N59" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T59" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9933,21 +9933,21 @@
         <v>0.95833333333229298</v>
       </c>
     </row>
-    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="13">
         <v>45</v>
       </c>
-      <c r="D60" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
+      <c r="D60" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
       <c r="H60" s="34">
         <v>11</v>
       </c>
       <c r="I60" s="34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J60" s="34">
         <v>2</v>
@@ -9959,10 +9959,10 @@
         <v>0.16666666666666599</v>
       </c>
       <c r="M60" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N60" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T60" s="1" t="b">
         <f t="shared" si="4"/>
@@ -9978,19 +9978,19 @@
         <v>0.99999999999870004</v>
       </c>
     </row>
-    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="12">
         <v>46</v>
       </c>
-      <c r="D61" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
+      <c r="D61" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
       <c r="H61" s="32"/>
       <c r="I61" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61" s="32">
         <v>1</v>
@@ -10002,10 +10002,10 @@
         <v>8.3333333333333398E-2</v>
       </c>
       <c r="M61" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N61" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T61" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10021,19 +10021,19 @@
         <v>1.04166666666511</v>
       </c>
     </row>
-    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="13">
         <v>47</v>
       </c>
-      <c r="D62" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
+      <c r="D62" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62" s="34">
         <v>1</v>
@@ -10045,10 +10045,10 @@
         <v>3.125E-2</v>
       </c>
       <c r="M62" s="34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N62" s="34" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T62" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10064,19 +10064,19 @@
         <v>1.0833333333315101</v>
       </c>
     </row>
-    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="12">
         <v>48</v>
       </c>
-      <c r="D63" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
+      <c r="D63" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
       <c r="H63" s="32"/>
       <c r="I63" s="32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63" s="32">
         <v>1</v>
@@ -10088,10 +10088,10 @@
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="M63" s="32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N63" s="32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T63" s="1" t="b">
         <f t="shared" si="4"/>
@@ -10107,14 +10107,14 @@
         <v>1.1249999999979201</v>
       </c>
     </row>
-    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="13">
         <v>49</v>
       </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
       <c r="H64" s="34"/>
       <c r="I64" s="34"/>
       <c r="J64" s="34"/>
@@ -10136,14 +10136,14 @@
         <v>1.1666666666643299</v>
       </c>
     </row>
-    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:25" s="1" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C65" s="14">
         <v>50</v>
       </c>
-      <c r="D65" s="44"/>
-      <c r="E65" s="44"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
       <c r="H65" s="36"/>
       <c r="I65" s="36"/>
       <c r="J65" s="36"/>
@@ -10165,7 +10165,7 @@
         <v>1.20833333333073</v>
       </c>
     </row>
-    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -10180,7 +10180,7 @@
         <v>1.2499999999971401</v>
       </c>
     </row>
-    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -10193,7 +10193,7 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="9"/>
     </row>
-    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="D68" s="1">
         <f>COUNTA(D16:D65)</f>
         <v>48</v>
@@ -10215,7 +10215,7 @@
         <v>1.2916666666635499</v>
       </c>
     </row>
-    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:25" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -10230,7 +10230,7 @@
         <v>1.33333333332996</v>
       </c>
     </row>
-    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -10245,7 +10245,7 @@
         <v>1.37499999999636</v>
       </c>
     </row>
-    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -10260,7 +10260,7 @@
         <v>1.4166666666627701</v>
       </c>
     </row>
-    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -10275,7 +10275,7 @@
         <v>1.4583333333291799</v>
       </c>
     </row>
-    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -10290,7 +10290,7 @@
         <v>1.49999999999558</v>
       </c>
     </row>
-    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -10305,7 +10305,7 @@
         <v>1.54166666666199</v>
       </c>
     </row>
-    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -10320,7 +10320,7 @@
         <v>1.5833333333284001</v>
       </c>
     </row>
-    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -10335,7 +10335,7 @@
         <v>1.6249999999948099</v>
       </c>
     </row>
-    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -10350,7 +10350,7 @@
         <v>1.66666666666121</v>
       </c>
     </row>
-    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -10365,7 +10365,7 @@
         <v>1.7083333333276201</v>
       </c>
     </row>
-    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -10380,7 +10380,7 @@
         <v>1.7499999999940301</v>
       </c>
     </row>
-    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -10395,87 +10395,87 @@
         <v>1.79166666666043</v>
       </c>
     </row>
-    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y81" s="9">
         <v>1.83333333332684</v>
       </c>
     </row>
-    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y82" s="9">
         <v>1.8749999999932501</v>
       </c>
     </row>
-    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y83" s="9">
         <v>1.9166666666596599</v>
       </c>
     </row>
-    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y84" s="9">
         <v>1.95833333332606</v>
       </c>
     </row>
-    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y85" s="9">
         <v>1.99999999999247</v>
       </c>
     </row>
-    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y86" s="9">
         <v>2.0416666666588701</v>
       </c>
     </row>
-    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y87" s="9">
         <v>2.0833333333252799</v>
       </c>
     </row>
-    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y88" s="9">
         <v>2.1249999999916902</v>
       </c>
     </row>
-    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y89" s="9">
         <v>2.1666666666580898</v>
       </c>
     </row>
-    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y90" s="9">
         <v>2.2083333333245001</v>
       </c>
     </row>
-    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y91" s="9">
         <v>2.2499999999909099</v>
       </c>
     </row>
-    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y92" s="9">
         <v>2.2916666666573202</v>
       </c>
     </row>
-    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y93" s="9">
         <v>2.3333333333237198</v>
       </c>
     </row>
-    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y94" s="9">
         <v>2.3749999999901301</v>
       </c>
     </row>
-    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y95" s="9">
         <v>2.41666666665654</v>
       </c>
     </row>
-    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y96" s="9">
         <v>2.45833333332294</v>
       </c>
     </row>
-    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="25:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="Y97" s="9">
         <v>2.4999999999893499</v>
       </c>
@@ -10483,6 +10483,44 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="tjqSiT+XspradLJBNpu0viI4TokIDIF0O7QeXm3BTZLmeAfSOw5TlniSFfStQ9LXJLtK7gLyf3B6jINr+qJ+Cg==" saltValue="/wSmyHkNAfBsPbW8NILu1w==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="54">
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
     <mergeCell ref="D63:G63"/>
     <mergeCell ref="D64:G64"/>
     <mergeCell ref="D65:G65"/>
@@ -10499,44 +10537,6 @@
     <mergeCell ref="D62:G62"/>
     <mergeCell ref="D51:G51"/>
     <mergeCell ref="D52:G52"/>
-    <mergeCell ref="D53:G53"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="D56:G56"/>
-    <mergeCell ref="D45:G45"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="D50:G50"/>
-    <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D42:G42"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="D29:G29"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="D18:G18"/>
-    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:N2">
     <cfRule type="expression" dxfId="9" priority="3">
@@ -10653,45 +10653,45 @@
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="2:13" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="2:13" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="22"/>
       <c r="C4" s="22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
         <f>COUNTIF(Sprint,C4)</f>
@@ -10714,9 +10714,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B6" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="10">
         <f>SUMIFS(Duree, Sprint,C4)</f>
@@ -10739,9 +10739,9 @@
         <v>8.0520833333295023</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
@@ -10755,7 +10755,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="49"/>
     </row>
-    <row r="10" spans="2:13" ht="10.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:13" ht="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="7jx2YjRECZ6o8Bp/12l6CT33ZUxVZFIE8DruIq28qeqGO2CO/14nabG1jCRVqb35hCSmvSIufKDGdWZOjYPEuQ==" saltValue="Nt1swAwRwjrWuMUX30XPfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="2">
@@ -10775,16 +10775,16 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="13.35" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
@@ -10803,150 +10803,150 @@
       <c r="Q2" s="49"/>
       <c r="R2" s="49"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C4" s="23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="D5" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D6" s="24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D6" s="24" t="s">
+    <row r="7" spans="2:18" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="D7" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:18" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D7" s="24" t="s">
+    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D13" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:18" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D13" s="24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D14" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D15" s="24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D16" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D17" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D18" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D23" s="1" t="s">
+    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E29" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D26" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D27" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E29" s="24" t="s">
+    <row r="30" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E30" s="24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="3:5" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="E30" s="24" t="s">
+    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
+      <c r="E31" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="E31" s="24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3">
       <c r="D32" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="35" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="36" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="37" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="38" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="39" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="40" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="41" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="42" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="43" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="44" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="45" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="46" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="Dzyfz6Pvoe1+wPoVjXKJsRTFywgjIP8eSEZi7eXOnUCA2h3K3cNX0zQIho1YSjNBBIX99v4/FYUmXsSWPOGxxw==" saltValue="B5CvoY9Z3hcMlbc34txcfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
